--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA002／期間内プロジェクト一覧.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA002／期間内プロジェクト一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EDA5C-1270-47C6-ACE3-584332A63734}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB09FA61-23EE-4E87-95FE-E5095F7DBDD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="173">
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
   </si>
@@ -1437,9 +1437,6 @@
   </si>
   <si>
     <t>プロジェクト分類</t>
-  </si>
-  <si>
-    <t>プロジェクト開始日付</t>
   </si>
   <si>
     <t>日付</t>
@@ -1658,6 +1655,23 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロジェクト開始日付</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>プロジェクト開始日付,プロジェクト終了日付,プロジェクト名</t>
+    <rPh sb="17" eb="19">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>昇</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2394,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="423">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2948,6 +2962,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2962,33 +3009,144 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3001,137 +3159,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3142,48 +3210,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3193,6 +3219,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3205,12 +3282,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3238,50 +3309,50 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3289,6 +3360,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3298,32 +3378,125 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3346,152 +3519,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3502,6 +3561,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3520,65 +3594,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7204,7 +7227,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="77"/>
       <c r="J23" s="78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K23" s="77"/>
       <c r="L23" s="77"/>
@@ -7870,154 +7893,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="245" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="236" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="234" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="248" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="259" t="s">
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="257" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="245" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="230" t="s">
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="233">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="231">
         <f>IF(D8="","",D8)</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="235"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="67"/>
       <c r="AN1" s="68"/>
     </row>
     <row r="2" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="239" t="str">
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="237" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="241"/>
-      <c r="AG2" s="233">
+      <c r="AD2" s="238"/>
+      <c r="AE2" s="238"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="231">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44819</v>
       </c>
-      <c r="AH2" s="234"/>
-      <c r="AI2" s="235"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="233"/>
       <c r="AK2" s="67"/>
       <c r="AL2" s="67"/>
       <c r="AM2" s="67"/>
       <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="245" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="236" t="s">
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="234" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="249"/>
-      <c r="AC3" s="242"/>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="233"/>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="245"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="231"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="233"/>
       <c r="AK3" s="67"/>
       <c r="AL3" s="67"/>
       <c r="AM3" s="67"/>
@@ -8064,1059 +8087,1192 @@
       <c r="A7" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="243" t="s">
+      <c r="C7" s="242"/>
+      <c r="D7" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="243" t="s">
+      <c r="E7" s="243"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="245"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="246" t="s">
+      <c r="H7" s="243"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="245"/>
-      <c r="N7" s="245"/>
-      <c r="O7" s="245"/>
-      <c r="P7" s="244"/>
-      <c r="Q7" s="243" t="s">
+      <c r="K7" s="243"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="243"/>
+      <c r="N7" s="243"/>
+      <c r="O7" s="243"/>
+      <c r="P7" s="242"/>
+      <c r="Q7" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="245"/>
-      <c r="S7" s="245"/>
-      <c r="T7" s="245"/>
-      <c r="U7" s="245"/>
-      <c r="V7" s="245"/>
-      <c r="W7" s="245"/>
-      <c r="X7" s="245"/>
-      <c r="Y7" s="245"/>
-      <c r="Z7" s="245"/>
-      <c r="AA7" s="245"/>
-      <c r="AB7" s="245"/>
-      <c r="AC7" s="245"/>
-      <c r="AD7" s="245"/>
-      <c r="AE7" s="244"/>
-      <c r="AF7" s="243" t="s">
+      <c r="R7" s="243"/>
+      <c r="S7" s="243"/>
+      <c r="T7" s="243"/>
+      <c r="U7" s="243"/>
+      <c r="V7" s="243"/>
+      <c r="W7" s="243"/>
+      <c r="X7" s="243"/>
+      <c r="Y7" s="243"/>
+      <c r="Z7" s="243"/>
+      <c r="AA7" s="243"/>
+      <c r="AB7" s="243"/>
+      <c r="AC7" s="243"/>
+      <c r="AD7" s="243"/>
+      <c r="AE7" s="242"/>
+      <c r="AF7" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="245"/>
-      <c r="AH7" s="245"/>
-      <c r="AI7" s="244"/>
+      <c r="AG7" s="243"/>
+      <c r="AH7" s="243"/>
+      <c r="AI7" s="242"/>
       <c r="AJ7" s="63"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="148">
         <v>1</v>
       </c>
-      <c r="B8" s="421" t="s">
+      <c r="B8" s="268" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="223">
+      <c r="C8" s="269"/>
+      <c r="D8" s="270">
         <v>43580</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="221" t="s">
+      <c r="E8" s="271"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="273" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="227" t="s">
+      <c r="H8" s="274"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="275" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="227" t="s">
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
+      <c r="P8" s="277"/>
+      <c r="Q8" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="228"/>
-      <c r="S8" s="228"/>
-      <c r="T8" s="228"/>
-      <c r="U8" s="228"/>
-      <c r="V8" s="228"/>
-      <c r="W8" s="228"/>
-      <c r="X8" s="228"/>
-      <c r="Y8" s="228"/>
-      <c r="Z8" s="228"/>
-      <c r="AA8" s="228"/>
-      <c r="AB8" s="228"/>
-      <c r="AC8" s="228"/>
-      <c r="AD8" s="228"/>
-      <c r="AE8" s="229"/>
-      <c r="AF8" s="271" t="s">
+      <c r="R8" s="276"/>
+      <c r="S8" s="276"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="276"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="276"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="276"/>
+      <c r="AA8" s="276"/>
+      <c r="AB8" s="276"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="276"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="272"/>
-      <c r="AI8" s="273"/>
+      <c r="AG8" s="216"/>
+      <c r="AH8" s="216"/>
+      <c r="AI8" s="217"/>
       <c r="AJ8" s="63"/>
     </row>
     <row r="9" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="149">
         <v>2</v>
       </c>
-      <c r="B9" s="422" t="s">
+      <c r="B9" s="266" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="224"/>
+      <c r="D9" s="225">
+        <v>44819</v>
+      </c>
+      <c r="E9" s="226"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="266" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214">
-        <v>44819</v>
-      </c>
-      <c r="E9" s="215"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="422" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="217"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="405" t="s">
+      <c r="H9" s="223"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="267" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="267" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="405" t="s">
+      <c r="R9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="220"/>
+      <c r="X9" s="220"/>
+      <c r="Y9" s="220"/>
+      <c r="Z9" s="220"/>
+      <c r="AA9" s="220"/>
+      <c r="AB9" s="220"/>
+      <c r="AC9" s="220"/>
+      <c r="AD9" s="220"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="218" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="219"/>
-      <c r="S9" s="219"/>
-      <c r="T9" s="219"/>
-      <c r="U9" s="219"/>
-      <c r="V9" s="219"/>
-      <c r="W9" s="219"/>
-      <c r="X9" s="219"/>
-      <c r="Y9" s="219"/>
-      <c r="Z9" s="219"/>
-      <c r="AA9" s="219"/>
-      <c r="AB9" s="219"/>
-      <c r="AC9" s="219"/>
-      <c r="AD9" s="219"/>
-      <c r="AE9" s="220"/>
-      <c r="AF9" s="408" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
-      <c r="AI9" s="270"/>
+      <c r="AG9" s="213"/>
+      <c r="AH9" s="213"/>
+      <c r="AI9" s="214"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="149"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="219"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="219"/>
-      <c r="U10" s="219"/>
-      <c r="V10" s="219"/>
-      <c r="W10" s="219"/>
-      <c r="X10" s="219"/>
-      <c r="Y10" s="219"/>
-      <c r="Z10" s="219"/>
-      <c r="AA10" s="219"/>
-      <c r="AB10" s="219"/>
-      <c r="AC10" s="219"/>
-      <c r="AD10" s="219"/>
-      <c r="AE10" s="220"/>
-      <c r="AF10" s="268"/>
-      <c r="AG10" s="269"/>
-      <c r="AH10" s="269"/>
-      <c r="AI10" s="270"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="221"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="220"/>
+      <c r="S10" s="220"/>
+      <c r="T10" s="220"/>
+      <c r="U10" s="220"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="220"/>
+      <c r="Y10" s="220"/>
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="220"/>
+      <c r="AB10" s="220"/>
+      <c r="AC10" s="220"/>
+      <c r="AD10" s="220"/>
+      <c r="AE10" s="221"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="213"/>
+      <c r="AH10" s="213"/>
+      <c r="AI10" s="214"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="149"/>
-      <c r="B11" s="212"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="219"/>
-      <c r="S11" s="219"/>
-      <c r="T11" s="219"/>
-      <c r="U11" s="219"/>
-      <c r="V11" s="219"/>
-      <c r="W11" s="219"/>
-      <c r="X11" s="219"/>
-      <c r="Y11" s="219"/>
-      <c r="Z11" s="219"/>
-      <c r="AA11" s="219"/>
-      <c r="AB11" s="219"/>
-      <c r="AC11" s="219"/>
-      <c r="AD11" s="219"/>
-      <c r="AE11" s="220"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="270"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="221"/>
+      <c r="Q11" s="219"/>
+      <c r="R11" s="220"/>
+      <c r="S11" s="220"/>
+      <c r="T11" s="220"/>
+      <c r="U11" s="220"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="220"/>
+      <c r="X11" s="220"/>
+      <c r="Y11" s="220"/>
+      <c r="Z11" s="220"/>
+      <c r="AA11" s="220"/>
+      <c r="AB11" s="220"/>
+      <c r="AC11" s="220"/>
+      <c r="AD11" s="220"/>
+      <c r="AE11" s="221"/>
+      <c r="AF11" s="212"/>
+      <c r="AG11" s="213"/>
+      <c r="AH11" s="213"/>
+      <c r="AI11" s="214"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="149"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="219"/>
-      <c r="S12" s="219"/>
-      <c r="T12" s="219"/>
-      <c r="U12" s="219"/>
-      <c r="V12" s="219"/>
-      <c r="W12" s="219"/>
-      <c r="X12" s="219"/>
-      <c r="Y12" s="219"/>
-      <c r="Z12" s="219"/>
-      <c r="AA12" s="219"/>
-      <c r="AB12" s="219"/>
-      <c r="AC12" s="219"/>
-      <c r="AD12" s="219"/>
-      <c r="AE12" s="220"/>
-      <c r="AF12" s="268"/>
-      <c r="AG12" s="269"/>
-      <c r="AH12" s="269"/>
-      <c r="AI12" s="270"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="222"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="220"/>
+      <c r="P12" s="221"/>
+      <c r="Q12" s="219"/>
+      <c r="R12" s="220"/>
+      <c r="S12" s="220"/>
+      <c r="T12" s="220"/>
+      <c r="U12" s="220"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="220"/>
+      <c r="X12" s="220"/>
+      <c r="Y12" s="220"/>
+      <c r="Z12" s="220"/>
+      <c r="AA12" s="220"/>
+      <c r="AB12" s="220"/>
+      <c r="AC12" s="220"/>
+      <c r="AD12" s="220"/>
+      <c r="AE12" s="221"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="213"/>
+      <c r="AH12" s="213"/>
+      <c r="AI12" s="214"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="149"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="219"/>
-      <c r="S13" s="219"/>
-      <c r="T13" s="219"/>
-      <c r="U13" s="219"/>
-      <c r="V13" s="219"/>
-      <c r="W13" s="219"/>
-      <c r="X13" s="219"/>
-      <c r="Y13" s="219"/>
-      <c r="Z13" s="219"/>
-      <c r="AA13" s="219"/>
-      <c r="AB13" s="219"/>
-      <c r="AC13" s="219"/>
-      <c r="AD13" s="219"/>
-      <c r="AE13" s="220"/>
-      <c r="AF13" s="268"/>
-      <c r="AG13" s="269"/>
-      <c r="AH13" s="269"/>
-      <c r="AI13" s="270"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="221"/>
+      <c r="Q13" s="219"/>
+      <c r="R13" s="220"/>
+      <c r="S13" s="220"/>
+      <c r="T13" s="220"/>
+      <c r="U13" s="220"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="220"/>
+      <c r="X13" s="220"/>
+      <c r="Y13" s="220"/>
+      <c r="Z13" s="220"/>
+      <c r="AA13" s="220"/>
+      <c r="AB13" s="220"/>
+      <c r="AC13" s="220"/>
+      <c r="AD13" s="220"/>
+      <c r="AE13" s="221"/>
+      <c r="AF13" s="212"/>
+      <c r="AG13" s="213"/>
+      <c r="AH13" s="213"/>
+      <c r="AI13" s="214"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="149"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="269"/>
-      <c r="N14" s="269"/>
-      <c r="O14" s="269"/>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="219"/>
-      <c r="S14" s="219"/>
-      <c r="T14" s="219"/>
-      <c r="U14" s="219"/>
-      <c r="V14" s="219"/>
-      <c r="W14" s="219"/>
-      <c r="X14" s="219"/>
-      <c r="Y14" s="219"/>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219"/>
-      <c r="AC14" s="219"/>
-      <c r="AD14" s="219"/>
-      <c r="AE14" s="220"/>
-      <c r="AF14" s="268"/>
-      <c r="AG14" s="269"/>
-      <c r="AH14" s="269"/>
-      <c r="AI14" s="270"/>
+      <c r="B14" s="222"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="213"/>
+      <c r="L14" s="213"/>
+      <c r="M14" s="213"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
+      <c r="P14" s="214"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="220"/>
+      <c r="S14" s="220"/>
+      <c r="T14" s="220"/>
+      <c r="U14" s="220"/>
+      <c r="V14" s="220"/>
+      <c r="W14" s="220"/>
+      <c r="X14" s="220"/>
+      <c r="Y14" s="220"/>
+      <c r="Z14" s="220"/>
+      <c r="AA14" s="220"/>
+      <c r="AB14" s="220"/>
+      <c r="AC14" s="220"/>
+      <c r="AD14" s="220"/>
+      <c r="AE14" s="221"/>
+      <c r="AF14" s="212"/>
+      <c r="AG14" s="213"/>
+      <c r="AH14" s="213"/>
+      <c r="AI14" s="214"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="149"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="269"/>
-      <c r="N15" s="269"/>
-      <c r="O15" s="269"/>
-      <c r="P15" s="270"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="219"/>
-      <c r="S15" s="219"/>
-      <c r="T15" s="219"/>
-      <c r="U15" s="219"/>
-      <c r="V15" s="219"/>
-      <c r="W15" s="219"/>
-      <c r="X15" s="219"/>
-      <c r="Y15" s="219"/>
-      <c r="Z15" s="219"/>
-      <c r="AA15" s="219"/>
-      <c r="AB15" s="219"/>
-      <c r="AC15" s="219"/>
-      <c r="AD15" s="219"/>
-      <c r="AE15" s="220"/>
-      <c r="AF15" s="268"/>
-      <c r="AG15" s="269"/>
-      <c r="AH15" s="269"/>
-      <c r="AI15" s="270"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="214"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="220"/>
+      <c r="S15" s="220"/>
+      <c r="T15" s="220"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="220"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="220"/>
+      <c r="Y15" s="220"/>
+      <c r="Z15" s="220"/>
+      <c r="AA15" s="220"/>
+      <c r="AB15" s="220"/>
+      <c r="AC15" s="220"/>
+      <c r="AD15" s="220"/>
+      <c r="AE15" s="221"/>
+      <c r="AF15" s="212"/>
+      <c r="AG15" s="213"/>
+      <c r="AH15" s="213"/>
+      <c r="AI15" s="214"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="149"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="268"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="269"/>
-      <c r="M16" s="269"/>
-      <c r="N16" s="269"/>
-      <c r="O16" s="269"/>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="218"/>
-      <c r="R16" s="219"/>
-      <c r="S16" s="219"/>
-      <c r="T16" s="219"/>
-      <c r="U16" s="219"/>
-      <c r="V16" s="219"/>
-      <c r="W16" s="219"/>
-      <c r="X16" s="219"/>
-      <c r="Y16" s="219"/>
-      <c r="Z16" s="219"/>
-      <c r="AA16" s="219"/>
-      <c r="AB16" s="219"/>
-      <c r="AC16" s="219"/>
-      <c r="AD16" s="219"/>
-      <c r="AE16" s="220"/>
-      <c r="AF16" s="268"/>
-      <c r="AG16" s="269"/>
-      <c r="AH16" s="269"/>
-      <c r="AI16" s="270"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="225"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="213"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="213"/>
+      <c r="P16" s="214"/>
+      <c r="Q16" s="219"/>
+      <c r="R16" s="220"/>
+      <c r="S16" s="220"/>
+      <c r="T16" s="220"/>
+      <c r="U16" s="220"/>
+      <c r="V16" s="220"/>
+      <c r="W16" s="220"/>
+      <c r="X16" s="220"/>
+      <c r="Y16" s="220"/>
+      <c r="Z16" s="220"/>
+      <c r="AA16" s="220"/>
+      <c r="AB16" s="220"/>
+      <c r="AC16" s="220"/>
+      <c r="AD16" s="220"/>
+      <c r="AE16" s="221"/>
+      <c r="AF16" s="212"/>
+      <c r="AG16" s="213"/>
+      <c r="AH16" s="213"/>
+      <c r="AI16" s="214"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="149"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="268"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269"/>
-      <c r="N17" s="269"/>
-      <c r="O17" s="269"/>
-      <c r="P17" s="270"/>
-      <c r="Q17" s="218"/>
-      <c r="R17" s="219"/>
-      <c r="S17" s="219"/>
-      <c r="T17" s="219"/>
-      <c r="U17" s="219"/>
-      <c r="V17" s="219"/>
-      <c r="W17" s="219"/>
-      <c r="X17" s="219"/>
-      <c r="Y17" s="219"/>
-      <c r="Z17" s="219"/>
-      <c r="AA17" s="219"/>
-      <c r="AB17" s="219"/>
-      <c r="AC17" s="219"/>
-      <c r="AD17" s="219"/>
-      <c r="AE17" s="220"/>
-      <c r="AF17" s="268"/>
-      <c r="AG17" s="269"/>
-      <c r="AH17" s="269"/>
-      <c r="AI17" s="270"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
+      <c r="P17" s="214"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="220"/>
+      <c r="S17" s="220"/>
+      <c r="T17" s="220"/>
+      <c r="U17" s="220"/>
+      <c r="V17" s="220"/>
+      <c r="W17" s="220"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="220"/>
+      <c r="AA17" s="220"/>
+      <c r="AB17" s="220"/>
+      <c r="AC17" s="220"/>
+      <c r="AD17" s="220"/>
+      <c r="AE17" s="221"/>
+      <c r="AF17" s="212"/>
+      <c r="AG17" s="213"/>
+      <c r="AH17" s="213"/>
+      <c r="AI17" s="214"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="149"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="268"/>
-      <c r="K18" s="269"/>
-      <c r="L18" s="269"/>
-      <c r="M18" s="269"/>
-      <c r="N18" s="269"/>
-      <c r="O18" s="269"/>
-      <c r="P18" s="270"/>
-      <c r="Q18" s="218"/>
-      <c r="R18" s="219"/>
-      <c r="S18" s="219"/>
-      <c r="T18" s="219"/>
-      <c r="U18" s="219"/>
-      <c r="V18" s="219"/>
-      <c r="W18" s="219"/>
-      <c r="X18" s="219"/>
-      <c r="Y18" s="219"/>
-      <c r="Z18" s="219"/>
-      <c r="AA18" s="219"/>
-      <c r="AB18" s="219"/>
-      <c r="AC18" s="219"/>
-      <c r="AD18" s="219"/>
-      <c r="AE18" s="220"/>
-      <c r="AF18" s="268"/>
-      <c r="AG18" s="269"/>
-      <c r="AH18" s="269"/>
-      <c r="AI18" s="270"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="213"/>
+      <c r="P18" s="214"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="220"/>
+      <c r="T18" s="220"/>
+      <c r="U18" s="220"/>
+      <c r="V18" s="220"/>
+      <c r="W18" s="220"/>
+      <c r="X18" s="220"/>
+      <c r="Y18" s="220"/>
+      <c r="Z18" s="220"/>
+      <c r="AA18" s="220"/>
+      <c r="AB18" s="220"/>
+      <c r="AC18" s="220"/>
+      <c r="AD18" s="220"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="212"/>
+      <c r="AG18" s="213"/>
+      <c r="AH18" s="213"/>
+      <c r="AI18" s="214"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="149"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="268"/>
-      <c r="K19" s="269"/>
-      <c r="L19" s="269"/>
-      <c r="M19" s="269"/>
-      <c r="N19" s="269"/>
-      <c r="O19" s="269"/>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="218"/>
-      <c r="R19" s="219"/>
-      <c r="S19" s="219"/>
-      <c r="T19" s="219"/>
-      <c r="U19" s="219"/>
-      <c r="V19" s="219"/>
-      <c r="W19" s="219"/>
-      <c r="X19" s="219"/>
-      <c r="Y19" s="219"/>
-      <c r="Z19" s="219"/>
-      <c r="AA19" s="219"/>
-      <c r="AB19" s="219"/>
-      <c r="AC19" s="219"/>
-      <c r="AD19" s="219"/>
-      <c r="AE19" s="220"/>
-      <c r="AF19" s="268"/>
-      <c r="AG19" s="269"/>
-      <c r="AH19" s="269"/>
-      <c r="AI19" s="270"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="212"/>
+      <c r="K19" s="213"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="213"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="214"/>
+      <c r="Q19" s="219"/>
+      <c r="R19" s="220"/>
+      <c r="S19" s="220"/>
+      <c r="T19" s="220"/>
+      <c r="U19" s="220"/>
+      <c r="V19" s="220"/>
+      <c r="W19" s="220"/>
+      <c r="X19" s="220"/>
+      <c r="Y19" s="220"/>
+      <c r="Z19" s="220"/>
+      <c r="AA19" s="220"/>
+      <c r="AB19" s="220"/>
+      <c r="AC19" s="220"/>
+      <c r="AD19" s="220"/>
+      <c r="AE19" s="221"/>
+      <c r="AF19" s="212"/>
+      <c r="AG19" s="213"/>
+      <c r="AH19" s="213"/>
+      <c r="AI19" s="214"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="149"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="269"/>
-      <c r="L20" s="269"/>
-      <c r="M20" s="269"/>
-      <c r="N20" s="269"/>
-      <c r="O20" s="269"/>
-      <c r="P20" s="270"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="219"/>
-      <c r="S20" s="219"/>
-      <c r="T20" s="219"/>
-      <c r="U20" s="219"/>
-      <c r="V20" s="219"/>
-      <c r="W20" s="219"/>
-      <c r="X20" s="219"/>
-      <c r="Y20" s="219"/>
-      <c r="Z20" s="219"/>
-      <c r="AA20" s="219"/>
-      <c r="AB20" s="219"/>
-      <c r="AC20" s="219"/>
-      <c r="AD20" s="219"/>
-      <c r="AE20" s="220"/>
-      <c r="AF20" s="268"/>
-      <c r="AG20" s="269"/>
-      <c r="AH20" s="269"/>
-      <c r="AI20" s="270"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="213"/>
+      <c r="P20" s="214"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="220"/>
+      <c r="S20" s="220"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="221"/>
+      <c r="AF20" s="212"/>
+      <c r="AG20" s="213"/>
+      <c r="AH20" s="213"/>
+      <c r="AI20" s="214"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="149"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="268"/>
-      <c r="K21" s="269"/>
-      <c r="L21" s="269"/>
-      <c r="M21" s="269"/>
-      <c r="N21" s="269"/>
-      <c r="O21" s="269"/>
-      <c r="P21" s="270"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="219"/>
-      <c r="S21" s="219"/>
-      <c r="T21" s="219"/>
-      <c r="U21" s="219"/>
-      <c r="V21" s="219"/>
-      <c r="W21" s="219"/>
-      <c r="X21" s="219"/>
-      <c r="Y21" s="219"/>
-      <c r="Z21" s="219"/>
-      <c r="AA21" s="219"/>
-      <c r="AB21" s="219"/>
-      <c r="AC21" s="219"/>
-      <c r="AD21" s="219"/>
-      <c r="AE21" s="220"/>
-      <c r="AF21" s="268"/>
-      <c r="AG21" s="269"/>
-      <c r="AH21" s="269"/>
-      <c r="AI21" s="270"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="212"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="213"/>
+      <c r="P21" s="214"/>
+      <c r="Q21" s="219"/>
+      <c r="R21" s="220"/>
+      <c r="S21" s="220"/>
+      <c r="T21" s="220"/>
+      <c r="U21" s="220"/>
+      <c r="V21" s="220"/>
+      <c r="W21" s="220"/>
+      <c r="X21" s="220"/>
+      <c r="Y21" s="220"/>
+      <c r="Z21" s="220"/>
+      <c r="AA21" s="220"/>
+      <c r="AB21" s="220"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="220"/>
+      <c r="AE21" s="221"/>
+      <c r="AF21" s="212"/>
+      <c r="AG21" s="213"/>
+      <c r="AH21" s="213"/>
+      <c r="AI21" s="214"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="149"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="268"/>
-      <c r="K22" s="269"/>
-      <c r="L22" s="269"/>
-      <c r="M22" s="269"/>
-      <c r="N22" s="269"/>
-      <c r="O22" s="269"/>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="219"/>
-      <c r="T22" s="219"/>
-      <c r="U22" s="219"/>
-      <c r="V22" s="219"/>
-      <c r="W22" s="219"/>
-      <c r="X22" s="219"/>
-      <c r="Y22" s="219"/>
-      <c r="Z22" s="219"/>
-      <c r="AA22" s="219"/>
-      <c r="AB22" s="219"/>
-      <c r="AC22" s="219"/>
-      <c r="AD22" s="219"/>
-      <c r="AE22" s="220"/>
-      <c r="AF22" s="268"/>
-      <c r="AG22" s="269"/>
-      <c r="AH22" s="269"/>
-      <c r="AI22" s="270"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="212"/>
+      <c r="K22" s="213"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="213"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="214"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="220"/>
+      <c r="W22" s="220"/>
+      <c r="X22" s="220"/>
+      <c r="Y22" s="220"/>
+      <c r="Z22" s="220"/>
+      <c r="AA22" s="220"/>
+      <c r="AB22" s="220"/>
+      <c r="AC22" s="220"/>
+      <c r="AD22" s="220"/>
+      <c r="AE22" s="221"/>
+      <c r="AF22" s="212"/>
+      <c r="AG22" s="213"/>
+      <c r="AH22" s="213"/>
+      <c r="AI22" s="214"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="149"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="268"/>
-      <c r="K23" s="269"/>
-      <c r="L23" s="269"/>
-      <c r="M23" s="269"/>
-      <c r="N23" s="269"/>
-      <c r="O23" s="269"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="218"/>
-      <c r="R23" s="219"/>
-      <c r="S23" s="219"/>
-      <c r="T23" s="219"/>
-      <c r="U23" s="219"/>
-      <c r="V23" s="219"/>
-      <c r="W23" s="219"/>
-      <c r="X23" s="219"/>
-      <c r="Y23" s="219"/>
-      <c r="Z23" s="219"/>
-      <c r="AA23" s="219"/>
-      <c r="AB23" s="219"/>
-      <c r="AC23" s="219"/>
-      <c r="AD23" s="219"/>
-      <c r="AE23" s="220"/>
-      <c r="AF23" s="268"/>
-      <c r="AG23" s="269"/>
-      <c r="AH23" s="269"/>
-      <c r="AI23" s="270"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="212"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
+      <c r="O23" s="213"/>
+      <c r="P23" s="214"/>
+      <c r="Q23" s="219"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="220"/>
+      <c r="T23" s="220"/>
+      <c r="U23" s="220"/>
+      <c r="V23" s="220"/>
+      <c r="W23" s="220"/>
+      <c r="X23" s="220"/>
+      <c r="Y23" s="220"/>
+      <c r="Z23" s="220"/>
+      <c r="AA23" s="220"/>
+      <c r="AB23" s="220"/>
+      <c r="AC23" s="220"/>
+      <c r="AD23" s="220"/>
+      <c r="AE23" s="221"/>
+      <c r="AF23" s="212"/>
+      <c r="AG23" s="213"/>
+      <c r="AH23" s="213"/>
+      <c r="AI23" s="214"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="149"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="268"/>
-      <c r="K24" s="269"/>
-      <c r="L24" s="269"/>
-      <c r="M24" s="269"/>
-      <c r="N24" s="269"/>
-      <c r="O24" s="269"/>
-      <c r="P24" s="270"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="219"/>
-      <c r="S24" s="219"/>
-      <c r="T24" s="219"/>
-      <c r="U24" s="219"/>
-      <c r="V24" s="219"/>
-      <c r="W24" s="219"/>
-      <c r="X24" s="219"/>
-      <c r="Y24" s="219"/>
-      <c r="Z24" s="219"/>
-      <c r="AA24" s="219"/>
-      <c r="AB24" s="219"/>
-      <c r="AC24" s="219"/>
-      <c r="AD24" s="219"/>
-      <c r="AE24" s="220"/>
-      <c r="AF24" s="268"/>
-      <c r="AG24" s="269"/>
-      <c r="AH24" s="269"/>
-      <c r="AI24" s="270"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="225"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="213"/>
+      <c r="M24" s="213"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="214"/>
+      <c r="Q24" s="219"/>
+      <c r="R24" s="220"/>
+      <c r="S24" s="220"/>
+      <c r="T24" s="220"/>
+      <c r="U24" s="220"/>
+      <c r="V24" s="220"/>
+      <c r="W24" s="220"/>
+      <c r="X24" s="220"/>
+      <c r="Y24" s="220"/>
+      <c r="Z24" s="220"/>
+      <c r="AA24" s="220"/>
+      <c r="AB24" s="220"/>
+      <c r="AC24" s="220"/>
+      <c r="AD24" s="220"/>
+      <c r="AE24" s="221"/>
+      <c r="AF24" s="212"/>
+      <c r="AG24" s="213"/>
+      <c r="AH24" s="213"/>
+      <c r="AI24" s="214"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="149"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="268"/>
-      <c r="K25" s="269"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="269"/>
-      <c r="N25" s="269"/>
-      <c r="O25" s="269"/>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="219"/>
-      <c r="S25" s="219"/>
-      <c r="T25" s="219"/>
-      <c r="U25" s="219"/>
-      <c r="V25" s="219"/>
-      <c r="W25" s="219"/>
-      <c r="X25" s="219"/>
-      <c r="Y25" s="219"/>
-      <c r="Z25" s="219"/>
-      <c r="AA25" s="219"/>
-      <c r="AB25" s="219"/>
-      <c r="AC25" s="219"/>
-      <c r="AD25" s="219"/>
-      <c r="AE25" s="220"/>
-      <c r="AF25" s="268"/>
-      <c r="AG25" s="269"/>
-      <c r="AH25" s="269"/>
-      <c r="AI25" s="270"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="212"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="214"/>
+      <c r="Q25" s="219"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+      <c r="U25" s="220"/>
+      <c r="V25" s="220"/>
+      <c r="W25" s="220"/>
+      <c r="X25" s="220"/>
+      <c r="Y25" s="220"/>
+      <c r="Z25" s="220"/>
+      <c r="AA25" s="220"/>
+      <c r="AB25" s="220"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="220"/>
+      <c r="AE25" s="221"/>
+      <c r="AF25" s="212"/>
+      <c r="AG25" s="213"/>
+      <c r="AH25" s="213"/>
+      <c r="AI25" s="214"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="149"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="268"/>
-      <c r="K26" s="269"/>
-      <c r="L26" s="269"/>
-      <c r="M26" s="269"/>
-      <c r="N26" s="269"/>
-      <c r="O26" s="269"/>
-      <c r="P26" s="270"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="219"/>
-      <c r="S26" s="219"/>
-      <c r="T26" s="219"/>
-      <c r="U26" s="219"/>
-      <c r="V26" s="219"/>
-      <c r="W26" s="219"/>
-      <c r="X26" s="219"/>
-      <c r="Y26" s="219"/>
-      <c r="Z26" s="219"/>
-      <c r="AA26" s="219"/>
-      <c r="AB26" s="219"/>
-      <c r="AC26" s="219"/>
-      <c r="AD26" s="219"/>
-      <c r="AE26" s="220"/>
-      <c r="AF26" s="268"/>
-      <c r="AG26" s="269"/>
-      <c r="AH26" s="269"/>
-      <c r="AI26" s="270"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="225"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="213"/>
+      <c r="L26" s="213"/>
+      <c r="M26" s="213"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="213"/>
+      <c r="P26" s="214"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="220"/>
+      <c r="S26" s="220"/>
+      <c r="T26" s="220"/>
+      <c r="U26" s="220"/>
+      <c r="V26" s="220"/>
+      <c r="W26" s="220"/>
+      <c r="X26" s="220"/>
+      <c r="Y26" s="220"/>
+      <c r="Z26" s="220"/>
+      <c r="AA26" s="220"/>
+      <c r="AB26" s="220"/>
+      <c r="AC26" s="220"/>
+      <c r="AD26" s="220"/>
+      <c r="AE26" s="221"/>
+      <c r="AF26" s="212"/>
+      <c r="AG26" s="213"/>
+      <c r="AH26" s="213"/>
+      <c r="AI26" s="214"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="149"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="268"/>
-      <c r="K27" s="269"/>
-      <c r="L27" s="269"/>
-      <c r="M27" s="269"/>
-      <c r="N27" s="269"/>
-      <c r="O27" s="269"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="218"/>
-      <c r="R27" s="219"/>
-      <c r="S27" s="219"/>
-      <c r="T27" s="219"/>
-      <c r="U27" s="219"/>
-      <c r="V27" s="219"/>
-      <c r="W27" s="219"/>
-      <c r="X27" s="219"/>
-      <c r="Y27" s="219"/>
-      <c r="Z27" s="219"/>
-      <c r="AA27" s="219"/>
-      <c r="AB27" s="219"/>
-      <c r="AC27" s="219"/>
-      <c r="AD27" s="219"/>
-      <c r="AE27" s="220"/>
-      <c r="AF27" s="268"/>
-      <c r="AG27" s="269"/>
-      <c r="AH27" s="269"/>
-      <c r="AI27" s="270"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="225"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="219"/>
+      <c r="R27" s="220"/>
+      <c r="S27" s="220"/>
+      <c r="T27" s="220"/>
+      <c r="U27" s="220"/>
+      <c r="V27" s="220"/>
+      <c r="W27" s="220"/>
+      <c r="X27" s="220"/>
+      <c r="Y27" s="220"/>
+      <c r="Z27" s="220"/>
+      <c r="AA27" s="220"/>
+      <c r="AB27" s="220"/>
+      <c r="AC27" s="220"/>
+      <c r="AD27" s="220"/>
+      <c r="AE27" s="221"/>
+      <c r="AF27" s="212"/>
+      <c r="AG27" s="213"/>
+      <c r="AH27" s="213"/>
+      <c r="AI27" s="214"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="149"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="268"/>
-      <c r="K28" s="269"/>
-      <c r="L28" s="269"/>
-      <c r="M28" s="269"/>
-      <c r="N28" s="269"/>
-      <c r="O28" s="269"/>
-      <c r="P28" s="270"/>
-      <c r="Q28" s="218"/>
-      <c r="R28" s="219"/>
-      <c r="S28" s="219"/>
-      <c r="T28" s="219"/>
-      <c r="U28" s="219"/>
-      <c r="V28" s="219"/>
-      <c r="W28" s="219"/>
-      <c r="X28" s="219"/>
-      <c r="Y28" s="219"/>
-      <c r="Z28" s="219"/>
-      <c r="AA28" s="219"/>
-      <c r="AB28" s="219"/>
-      <c r="AC28" s="219"/>
-      <c r="AD28" s="219"/>
-      <c r="AE28" s="220"/>
-      <c r="AF28" s="268"/>
-      <c r="AG28" s="269"/>
-      <c r="AH28" s="269"/>
-      <c r="AI28" s="270"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="225"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="212"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="213"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="214"/>
+      <c r="Q28" s="219"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="220"/>
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="220"/>
+      <c r="AB28" s="220"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="220"/>
+      <c r="AE28" s="221"/>
+      <c r="AF28" s="212"/>
+      <c r="AG28" s="213"/>
+      <c r="AH28" s="213"/>
+      <c r="AI28" s="214"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="149"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="268"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="269"/>
-      <c r="M29" s="269"/>
-      <c r="N29" s="269"/>
-      <c r="O29" s="269"/>
-      <c r="P29" s="270"/>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="219"/>
-      <c r="S29" s="219"/>
-      <c r="T29" s="219"/>
-      <c r="U29" s="219"/>
-      <c r="V29" s="219"/>
-      <c r="W29" s="219"/>
-      <c r="X29" s="219"/>
-      <c r="Y29" s="219"/>
-      <c r="Z29" s="219"/>
-      <c r="AA29" s="219"/>
-      <c r="AB29" s="219"/>
-      <c r="AC29" s="219"/>
-      <c r="AD29" s="219"/>
-      <c r="AE29" s="220"/>
-      <c r="AF29" s="268"/>
-      <c r="AG29" s="269"/>
-      <c r="AH29" s="269"/>
-      <c r="AI29" s="270"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="227"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="212"/>
+      <c r="K29" s="213"/>
+      <c r="L29" s="213"/>
+      <c r="M29" s="213"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="214"/>
+      <c r="Q29" s="219"/>
+      <c r="R29" s="220"/>
+      <c r="S29" s="220"/>
+      <c r="T29" s="220"/>
+      <c r="U29" s="220"/>
+      <c r="V29" s="220"/>
+      <c r="W29" s="220"/>
+      <c r="X29" s="220"/>
+      <c r="Y29" s="220"/>
+      <c r="Z29" s="220"/>
+      <c r="AA29" s="220"/>
+      <c r="AB29" s="220"/>
+      <c r="AC29" s="220"/>
+      <c r="AD29" s="220"/>
+      <c r="AE29" s="221"/>
+      <c r="AF29" s="212"/>
+      <c r="AG29" s="213"/>
+      <c r="AH29" s="213"/>
+      <c r="AI29" s="214"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="149"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="268"/>
-      <c r="K30" s="269"/>
-      <c r="L30" s="269"/>
-      <c r="M30" s="269"/>
-      <c r="N30" s="269"/>
-      <c r="O30" s="269"/>
-      <c r="P30" s="270"/>
-      <c r="Q30" s="218"/>
-      <c r="R30" s="219"/>
-      <c r="S30" s="219"/>
-      <c r="T30" s="219"/>
-      <c r="U30" s="219"/>
-      <c r="V30" s="219"/>
-      <c r="W30" s="219"/>
-      <c r="X30" s="219"/>
-      <c r="Y30" s="219"/>
-      <c r="Z30" s="219"/>
-      <c r="AA30" s="219"/>
-      <c r="AB30" s="219"/>
-      <c r="AC30" s="219"/>
-      <c r="AD30" s="219"/>
-      <c r="AE30" s="220"/>
-      <c r="AF30" s="268"/>
-      <c r="AG30" s="269"/>
-      <c r="AH30" s="269"/>
-      <c r="AI30" s="270"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="213"/>
+      <c r="M30" s="213"/>
+      <c r="N30" s="213"/>
+      <c r="O30" s="213"/>
+      <c r="P30" s="214"/>
+      <c r="Q30" s="219"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="220"/>
+      <c r="U30" s="220"/>
+      <c r="V30" s="220"/>
+      <c r="W30" s="220"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="220"/>
+      <c r="Z30" s="220"/>
+      <c r="AA30" s="220"/>
+      <c r="AB30" s="220"/>
+      <c r="AC30" s="220"/>
+      <c r="AD30" s="220"/>
+      <c r="AE30" s="221"/>
+      <c r="AF30" s="212"/>
+      <c r="AG30" s="213"/>
+      <c r="AH30" s="213"/>
+      <c r="AI30" s="214"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="149"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="268"/>
-      <c r="K31" s="269"/>
-      <c r="L31" s="269"/>
-      <c r="M31" s="269"/>
-      <c r="N31" s="269"/>
-      <c r="O31" s="269"/>
-      <c r="P31" s="270"/>
-      <c r="Q31" s="218"/>
-      <c r="R31" s="219"/>
-      <c r="S31" s="219"/>
-      <c r="T31" s="219"/>
-      <c r="U31" s="219"/>
-      <c r="V31" s="219"/>
-      <c r="W31" s="219"/>
-      <c r="X31" s="219"/>
-      <c r="Y31" s="219"/>
-      <c r="Z31" s="219"/>
-      <c r="AA31" s="219"/>
-      <c r="AB31" s="219"/>
-      <c r="AC31" s="219"/>
-      <c r="AD31" s="219"/>
-      <c r="AE31" s="220"/>
-      <c r="AF31" s="268"/>
-      <c r="AG31" s="269"/>
-      <c r="AH31" s="269"/>
-      <c r="AI31" s="270"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="213"/>
+      <c r="L31" s="213"/>
+      <c r="M31" s="213"/>
+      <c r="N31" s="213"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="214"/>
+      <c r="Q31" s="219"/>
+      <c r="R31" s="220"/>
+      <c r="S31" s="220"/>
+      <c r="T31" s="220"/>
+      <c r="U31" s="220"/>
+      <c r="V31" s="220"/>
+      <c r="W31" s="220"/>
+      <c r="X31" s="220"/>
+      <c r="Y31" s="220"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="220"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="220"/>
+      <c r="AE31" s="221"/>
+      <c r="AF31" s="212"/>
+      <c r="AG31" s="213"/>
+      <c r="AH31" s="213"/>
+      <c r="AI31" s="214"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="149"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="268"/>
-      <c r="K32" s="269"/>
-      <c r="L32" s="269"/>
-      <c r="M32" s="269"/>
-      <c r="N32" s="269"/>
-      <c r="O32" s="269"/>
-      <c r="P32" s="270"/>
-      <c r="Q32" s="218"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
-      <c r="W32" s="219"/>
-      <c r="X32" s="219"/>
-      <c r="Y32" s="219"/>
-      <c r="Z32" s="219"/>
-      <c r="AA32" s="219"/>
-      <c r="AB32" s="219"/>
-      <c r="AC32" s="219"/>
-      <c r="AD32" s="219"/>
-      <c r="AE32" s="220"/>
-      <c r="AF32" s="268"/>
-      <c r="AG32" s="269"/>
-      <c r="AH32" s="269"/>
-      <c r="AI32" s="270"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="212"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="213"/>
+      <c r="M32" s="213"/>
+      <c r="N32" s="213"/>
+      <c r="O32" s="213"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="220"/>
+      <c r="S32" s="220"/>
+      <c r="T32" s="220"/>
+      <c r="U32" s="220"/>
+      <c r="V32" s="220"/>
+      <c r="W32" s="220"/>
+      <c r="X32" s="220"/>
+      <c r="Y32" s="220"/>
+      <c r="Z32" s="220"/>
+      <c r="AA32" s="220"/>
+      <c r="AB32" s="220"/>
+      <c r="AC32" s="220"/>
+      <c r="AD32" s="220"/>
+      <c r="AE32" s="221"/>
+      <c r="AF32" s="212"/>
+      <c r="AG32" s="213"/>
+      <c r="AH32" s="213"/>
+      <c r="AI32" s="214"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="149"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="269"/>
-      <c r="L33" s="269"/>
-      <c r="M33" s="269"/>
-      <c r="N33" s="269"/>
-      <c r="O33" s="269"/>
-      <c r="P33" s="270"/>
-      <c r="Q33" s="218"/>
-      <c r="R33" s="219"/>
-      <c r="S33" s="219"/>
-      <c r="T33" s="219"/>
-      <c r="U33" s="219"/>
-      <c r="V33" s="219"/>
-      <c r="W33" s="219"/>
-      <c r="X33" s="219"/>
-      <c r="Y33" s="219"/>
-      <c r="Z33" s="219"/>
-      <c r="AA33" s="219"/>
-      <c r="AB33" s="219"/>
-      <c r="AC33" s="219"/>
-      <c r="AD33" s="219"/>
-      <c r="AE33" s="220"/>
-      <c r="AF33" s="268"/>
-      <c r="AG33" s="269"/>
-      <c r="AH33" s="269"/>
-      <c r="AI33" s="270"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="213"/>
+      <c r="N33" s="213"/>
+      <c r="O33" s="213"/>
+      <c r="P33" s="214"/>
+      <c r="Q33" s="219"/>
+      <c r="R33" s="220"/>
+      <c r="S33" s="220"/>
+      <c r="T33" s="220"/>
+      <c r="U33" s="220"/>
+      <c r="V33" s="220"/>
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="220"/>
+      <c r="Z33" s="220"/>
+      <c r="AA33" s="220"/>
+      <c r="AB33" s="220"/>
+      <c r="AC33" s="220"/>
+      <c r="AD33" s="220"/>
+      <c r="AE33" s="221"/>
+      <c r="AF33" s="212"/>
+      <c r="AG33" s="213"/>
+      <c r="AH33" s="213"/>
+      <c r="AI33" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -9141,150 +9297,17 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -9444,155 +9467,155 @@
       <c r="A1" s="278" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="277" t="str">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="281" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="282" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="283"/>
-      <c r="S1" s="290" t="str">
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="284"/>
+      <c r="S1" s="291" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="259"/>
       <c r="AA1" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="242" t="str">
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="274">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="292">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="276"/>
+      <c r="AH1" s="293"/>
+      <c r="AI1" s="294"/>
     </row>
     <row r="2" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="277" t="str">
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="287"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
       <c r="AA2" s="278" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="242" t="str">
+      <c r="AB2" s="280"/>
+      <c r="AC2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="274">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="292">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44819</v>
       </c>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="276"/>
+      <c r="AH2" s="293"/>
+      <c r="AI2" s="294"/>
     </row>
     <row r="3" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="277" t="str">
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="288"/>
-      <c r="Q3" s="288"/>
-      <c r="R3" s="289"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="288"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
       <c r="AA3" s="278"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="242" t="str">
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="274" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="292" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="276"/>
+      <c r="AH3" s="293"/>
+      <c r="AI3" s="294"/>
     </row>
     <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="150"/>
@@ -10847,6 +10870,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -10858,12 +10887,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -10893,155 +10916,155 @@
       <c r="A1" s="278" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="277" t="str">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="281" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="283"/>
-      <c r="S1" s="290" t="str">
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="284"/>
+      <c r="S1" s="291" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="259"/>
       <c r="AA1" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="242" t="str">
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="274">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="292">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="276"/>
+      <c r="AH1" s="293"/>
+      <c r="AI1" s="294"/>
     </row>
     <row r="2" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="277" t="str">
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="287"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
       <c r="AA2" s="278" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="242" t="str">
+      <c r="AB2" s="280"/>
+      <c r="AC2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="274">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="292">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44819</v>
       </c>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="276"/>
+      <c r="AH2" s="293"/>
+      <c r="AI2" s="294"/>
     </row>
     <row r="3" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="277" t="str">
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="288"/>
-      <c r="Q3" s="288"/>
-      <c r="R3" s="289"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="288"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
       <c r="AA3" s="278"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="242" t="str">
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="274" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="292" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="276"/>
+      <c r="AH3" s="293"/>
+      <c r="AI3" s="294"/>
     </row>
     <row r="4" spans="1:35" s="131" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="136"/>
@@ -11063,7 +11086,7 @@
       <c r="C6" s="82"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="291" t="s">
+      <c r="A7" s="295" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="298"/>
@@ -11081,77 +11104,77 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="315" t="s">
+      <c r="Q7" s="300" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="316"/>
-      <c r="S7" s="316"/>
-      <c r="T7" s="317"/>
-      <c r="U7" s="321" t="s">
-        <v>145</v>
-      </c>
-      <c r="V7" s="322"/>
-      <c r="W7" s="322"/>
-      <c r="X7" s="322"/>
-      <c r="Y7" s="322"/>
-      <c r="Z7" s="322"/>
-      <c r="AA7" s="322"/>
-      <c r="AB7" s="322"/>
-      <c r="AC7" s="322"/>
-      <c r="AD7" s="322"/>
-      <c r="AE7" s="322"/>
-      <c r="AF7" s="322"/>
-      <c r="AG7" s="322"/>
-      <c r="AH7" s="322"/>
-      <c r="AI7" s="323"/>
+      <c r="R7" s="301"/>
+      <c r="S7" s="301"/>
+      <c r="T7" s="302"/>
+      <c r="U7" s="305" t="s">
+        <v>144</v>
+      </c>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="306"/>
+      <c r="AB7" s="306"/>
+      <c r="AC7" s="306"/>
+      <c r="AD7" s="306"/>
+      <c r="AE7" s="306"/>
+      <c r="AF7" s="306"/>
+      <c r="AG7" s="306"/>
+      <c r="AH7" s="306"/>
+      <c r="AI7" s="307"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="291" t="s">
+      <c r="A8" s="295" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="298"/>
       <c r="C8" s="298"/>
       <c r="D8" s="299"/>
-      <c r="E8" s="312" t="s">
+      <c r="E8" s="303" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="313"/>
-      <c r="G8" s="313"/>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="313"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="313"/>
-      <c r="N8" s="313"/>
-      <c r="O8" s="313"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="291" t="s">
+      <c r="F8" s="304"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="304"/>
+      <c r="K8" s="304"/>
+      <c r="L8" s="304"/>
+      <c r="M8" s="304"/>
+      <c r="N8" s="304"/>
+      <c r="O8" s="304"/>
+      <c r="P8" s="304"/>
+      <c r="Q8" s="295" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="298"/>
       <c r="S8" s="298"/>
       <c r="T8" s="299"/>
-      <c r="U8" s="312" t="s">
-        <v>141</v>
-      </c>
-      <c r="V8" s="313"/>
-      <c r="W8" s="313"/>
-      <c r="X8" s="313"/>
-      <c r="Y8" s="313"/>
-      <c r="Z8" s="313"/>
-      <c r="AA8" s="313"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="313"/>
-      <c r="AD8" s="313"/>
-      <c r="AE8" s="313"/>
-      <c r="AF8" s="313"/>
-      <c r="AG8" s="313"/>
-      <c r="AH8" s="313"/>
-      <c r="AI8" s="314"/>
+      <c r="U8" s="303" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" s="304"/>
+      <c r="W8" s="304"/>
+      <c r="X8" s="304"/>
+      <c r="Y8" s="304"/>
+      <c r="Z8" s="304"/>
+      <c r="AA8" s="304"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="304"/>
+      <c r="AD8" s="304"/>
+      <c r="AE8" s="304"/>
+      <c r="AF8" s="304"/>
+      <c r="AG8" s="304"/>
+      <c r="AH8" s="304"/>
+      <c r="AI8" s="308"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="291" t="s">
+      <c r="A9" s="295" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="298"/>
@@ -11342,12 +11365,12 @@
       <c r="AI13" s="36"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="291" t="s">
+      <c r="A14" s="295" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="292"/>
-      <c r="C14" s="292"/>
-      <c r="D14" s="293"/>
+      <c r="B14" s="296"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="297"/>
       <c r="E14" s="185"/>
       <c r="F14" s="185"/>
       <c r="G14" s="185"/>
@@ -11383,7 +11406,7 @@
     <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
       <c r="B15" s="184" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="184"/>
       <c r="D15" s="184"/>
@@ -11422,7 +11445,7 @@
     <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
       <c r="B16" s="184" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="184"/>
       <c r="D16" s="184"/>
@@ -11621,14 +11644,14 @@
       <c r="AI20" s="122"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="291" t="s">
+      <c r="A21" s="295" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="298"/>
       <c r="C21" s="298"/>
       <c r="D21" s="299"/>
       <c r="E21" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -11641,37 +11664,37 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="291" t="s">
+      <c r="Q21" s="295" t="s">
         <v>45</v>
       </c>
       <c r="R21" s="298"/>
       <c r="S21" s="298"/>
       <c r="T21" s="299"/>
-      <c r="U21" s="312" t="s">
+      <c r="U21" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="V21" s="313"/>
-      <c r="W21" s="313"/>
-      <c r="X21" s="313"/>
-      <c r="Y21" s="313"/>
-      <c r="Z21" s="313"/>
-      <c r="AA21" s="313"/>
-      <c r="AB21" s="313"/>
-      <c r="AC21" s="313"/>
-      <c r="AD21" s="313"/>
-      <c r="AE21" s="313"/>
-      <c r="AF21" s="313"/>
-      <c r="AG21" s="313"/>
-      <c r="AH21" s="313"/>
-      <c r="AI21" s="314"/>
+      <c r="V21" s="304"/>
+      <c r="W21" s="304"/>
+      <c r="X21" s="304"/>
+      <c r="Y21" s="304"/>
+      <c r="Z21" s="304"/>
+      <c r="AA21" s="304"/>
+      <c r="AB21" s="304"/>
+      <c r="AC21" s="304"/>
+      <c r="AD21" s="304"/>
+      <c r="AE21" s="304"/>
+      <c r="AF21" s="304"/>
+      <c r="AG21" s="304"/>
+      <c r="AH21" s="304"/>
+      <c r="AI21" s="308"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="315" t="s">
+      <c r="A22" s="300" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="316"/>
-      <c r="C22" s="316"/>
-      <c r="D22" s="317"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="302"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="185"/>
@@ -11684,12 +11707,12 @@
       <c r="N22" s="185"/>
       <c r="O22" s="18"/>
       <c r="P22" s="185"/>
-      <c r="Q22" s="315" t="s">
+      <c r="Q22" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="316"/>
-      <c r="S22" s="316"/>
-      <c r="T22" s="317"/>
+      <c r="R22" s="301"/>
+      <c r="S22" s="301"/>
+      <c r="T22" s="302"/>
       <c r="U22" s="50"/>
       <c r="V22" s="185"/>
       <c r="W22" s="18"/>
@@ -11752,38 +11775,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="306" t="s">
+      <c r="A24" s="325" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="307"/>
-      <c r="C24" s="307"/>
-      <c r="D24" s="308"/>
-      <c r="E24" s="312" t="s">
+      <c r="B24" s="326"/>
+      <c r="C24" s="326"/>
+      <c r="D24" s="327"/>
+      <c r="E24" s="303" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="313"/>
-      <c r="G24" s="313"/>
-      <c r="H24" s="313"/>
-      <c r="I24" s="313"/>
-      <c r="J24" s="313"/>
-      <c r="K24" s="313"/>
-      <c r="L24" s="313"/>
-      <c r="M24" s="313"/>
-      <c r="N24" s="313"/>
-      <c r="O24" s="313"/>
-      <c r="P24" s="314"/>
-      <c r="Q24" s="318" t="s">
+      <c r="F24" s="304"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="304"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="304"/>
+      <c r="K24" s="304"/>
+      <c r="L24" s="304"/>
+      <c r="M24" s="304"/>
+      <c r="N24" s="304"/>
+      <c r="O24" s="304"/>
+      <c r="P24" s="308"/>
+      <c r="Q24" s="312" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="319"/>
-      <c r="S24" s="319"/>
-      <c r="T24" s="320"/>
-      <c r="U24" s="296">
+      <c r="R24" s="313"/>
+      <c r="S24" s="313"/>
+      <c r="T24" s="314"/>
+      <c r="U24" s="317">
         <v>3588</v>
       </c>
-      <c r="V24" s="297"/>
-      <c r="W24" s="297"/>
-      <c r="X24" s="297"/>
+      <c r="V24" s="318"/>
+      <c r="W24" s="318"/>
+      <c r="X24" s="318"/>
       <c r="Y24" s="21" t="s">
         <v>49</v>
       </c>
@@ -11799,28 +11822,28 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="302" t="s">
+      <c r="A25" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="303"/>
-      <c r="C25" s="303"/>
-      <c r="D25" s="304"/>
+      <c r="B25" s="322"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="24"/>
       <c r="F25" s="35"/>
       <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="294" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="295"/>
-      <c r="J25" s="295"/>
-      <c r="K25" s="295"/>
-      <c r="L25" s="295"/>
-      <c r="M25" s="295"/>
-      <c r="N25" s="295"/>
-      <c r="O25" s="295"/>
-      <c r="P25" s="295"/>
+      <c r="H25" s="315" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="316"/>
+      <c r="J25" s="316"/>
+      <c r="K25" s="316"/>
+      <c r="L25" s="316"/>
+      <c r="M25" s="316"/>
+      <c r="N25" s="316"/>
+      <c r="O25" s="316"/>
+      <c r="P25" s="316"/>
       <c r="Q25" s="185" t="s">
         <v>7</v>
       </c>
@@ -11829,15 +11852,15 @@
       <c r="T25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="305"/>
-      <c r="V25" s="305"/>
-      <c r="W25" s="305"/>
-      <c r="X25" s="305"/>
-      <c r="Y25" s="305"/>
-      <c r="Z25" s="305"/>
-      <c r="AA25" s="305"/>
-      <c r="AB25" s="305"/>
-      <c r="AC25" s="305"/>
+      <c r="U25" s="324"/>
+      <c r="V25" s="324"/>
+      <c r="W25" s="324"/>
+      <c r="X25" s="324"/>
+      <c r="Y25" s="324"/>
+      <c r="Z25" s="324"/>
+      <c r="AA25" s="324"/>
+      <c r="AB25" s="324"/>
+      <c r="AC25" s="324"/>
       <c r="AD25" s="185" t="s">
         <v>7</v>
       </c>
@@ -11857,15 +11880,15 @@
       <c r="G26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="301"/>
-      <c r="I26" s="301"/>
-      <c r="J26" s="301"/>
-      <c r="K26" s="301"/>
-      <c r="L26" s="301"/>
-      <c r="M26" s="301"/>
-      <c r="N26" s="301"/>
-      <c r="O26" s="301"/>
-      <c r="P26" s="301"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="320"/>
+      <c r="J26" s="320"/>
+      <c r="K26" s="320"/>
+      <c r="L26" s="320"/>
+      <c r="M26" s="320"/>
+      <c r="N26" s="320"/>
+      <c r="O26" s="320"/>
+      <c r="P26" s="320"/>
       <c r="Q26" s="184" t="s">
         <v>7</v>
       </c>
@@ -11874,15 +11897,15 @@
       <c r="T26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="301"/>
-      <c r="V26" s="301"/>
-      <c r="W26" s="301"/>
-      <c r="X26" s="301"/>
-      <c r="Y26" s="301"/>
-      <c r="Z26" s="301"/>
-      <c r="AA26" s="301"/>
-      <c r="AB26" s="301"/>
-      <c r="AC26" s="301"/>
+      <c r="U26" s="320"/>
+      <c r="V26" s="320"/>
+      <c r="W26" s="320"/>
+      <c r="X26" s="320"/>
+      <c r="Y26" s="320"/>
+      <c r="Z26" s="320"/>
+      <c r="AA26" s="320"/>
+      <c r="AB26" s="320"/>
+      <c r="AC26" s="320"/>
       <c r="AD26" s="184" t="s">
         <v>7</v>
       </c>
@@ -11902,15 +11925,15 @@
       <c r="G27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="300"/>
-      <c r="I27" s="300"/>
-      <c r="J27" s="300"/>
-      <c r="K27" s="300"/>
-      <c r="L27" s="300"/>
-      <c r="M27" s="300"/>
-      <c r="N27" s="300"/>
-      <c r="O27" s="300"/>
-      <c r="P27" s="300"/>
+      <c r="H27" s="319"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="319"/>
+      <c r="K27" s="319"/>
+      <c r="L27" s="319"/>
+      <c r="M27" s="319"/>
+      <c r="N27" s="319"/>
+      <c r="O27" s="319"/>
+      <c r="P27" s="319"/>
       <c r="Q27" s="183" t="s">
         <v>7</v>
       </c>
@@ -11919,31 +11942,31 @@
       <c r="T27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="300"/>
-      <c r="V27" s="300"/>
-      <c r="W27" s="300"/>
-      <c r="X27" s="300"/>
-      <c r="Y27" s="300"/>
-      <c r="Z27" s="300"/>
-      <c r="AA27" s="300"/>
-      <c r="AB27" s="300"/>
-      <c r="AC27" s="300"/>
-      <c r="AD27" s="300"/>
-      <c r="AE27" s="300"/>
-      <c r="AF27" s="300"/>
-      <c r="AG27" s="300"/>
-      <c r="AH27" s="300"/>
+      <c r="U27" s="319"/>
+      <c r="V27" s="319"/>
+      <c r="W27" s="319"/>
+      <c r="X27" s="319"/>
+      <c r="Y27" s="319"/>
+      <c r="Z27" s="319"/>
+      <c r="AA27" s="319"/>
+      <c r="AB27" s="319"/>
+      <c r="AC27" s="319"/>
+      <c r="AD27" s="319"/>
+      <c r="AE27" s="319"/>
+      <c r="AF27" s="319"/>
+      <c r="AG27" s="319"/>
+      <c r="AH27" s="319"/>
       <c r="AI27" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="291" t="s">
+      <c r="A28" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="292"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="293"/>
+      <c r="B28" s="296"/>
+      <c r="C28" s="296"/>
+      <c r="D28" s="297"/>
       <c r="E28" s="185"/>
       <c r="F28" s="185"/>
       <c r="G28" s="185"/>
@@ -12126,31 +12149,14 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -12163,14 +12169,31 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12852,155 +12875,155 @@
       <c r="A1" s="278" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="277" t="str">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="281" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="283"/>
-      <c r="S1" s="290" t="str">
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="284"/>
+      <c r="S1" s="291" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="259"/>
       <c r="AA1" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="242" t="str">
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="274">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="292">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="276"/>
+      <c r="AH1" s="293"/>
+      <c r="AI1" s="294"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="277" t="str">
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="287"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
       <c r="AA2" s="278" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="242" t="str">
+      <c r="AB2" s="280"/>
+      <c r="AC2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="274">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="292">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44819</v>
       </c>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="276"/>
+      <c r="AH2" s="293"/>
+      <c r="AI2" s="294"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="277" t="str">
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="288"/>
-      <c r="Q3" s="288"/>
-      <c r="R3" s="289"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="288"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
       <c r="AA3" s="278"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="242" t="str">
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="274" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="292" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="276"/>
+      <c r="AH3" s="293"/>
+      <c r="AI3" s="294"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
@@ -13123,280 +13146,284 @@
       <c r="AU6" s="75"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A7" s="379" t="s">
+      <c r="A7" s="328" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="380"/>
-      <c r="C7" s="380"/>
-      <c r="D7" s="380"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="380"/>
-      <c r="I7" s="380"/>
-      <c r="J7" s="380"/>
-      <c r="K7" s="380"/>
-      <c r="L7" s="380"/>
-      <c r="M7" s="380"/>
-      <c r="N7" s="380"/>
-      <c r="O7" s="380"/>
-      <c r="P7" s="380"/>
-      <c r="Q7" s="380"/>
-      <c r="R7" s="380"/>
-      <c r="S7" s="380"/>
-      <c r="T7" s="380"/>
-      <c r="U7" s="380"/>
-      <c r="V7" s="380"/>
-      <c r="W7" s="380"/>
-      <c r="X7" s="380"/>
-      <c r="Y7" s="380"/>
-      <c r="Z7" s="380"/>
-      <c r="AA7" s="380"/>
-      <c r="AB7" s="381"/>
-      <c r="AC7" s="392" t="s">
+      <c r="B7" s="329"/>
+      <c r="C7" s="329"/>
+      <c r="D7" s="329"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="329"/>
+      <c r="J7" s="329"/>
+      <c r="K7" s="329"/>
+      <c r="L7" s="329"/>
+      <c r="M7" s="329"/>
+      <c r="N7" s="329"/>
+      <c r="O7" s="329"/>
+      <c r="P7" s="329"/>
+      <c r="Q7" s="329"/>
+      <c r="R7" s="329"/>
+      <c r="S7" s="329"/>
+      <c r="T7" s="329"/>
+      <c r="U7" s="329"/>
+      <c r="V7" s="329"/>
+      <c r="W7" s="329"/>
+      <c r="X7" s="329"/>
+      <c r="Y7" s="329"/>
+      <c r="Z7" s="329"/>
+      <c r="AA7" s="329"/>
+      <c r="AB7" s="330"/>
+      <c r="AC7" s="341" t="s">
         <v>50</v>
       </c>
-      <c r="AD7" s="380"/>
-      <c r="AE7" s="380"/>
-      <c r="AF7" s="380"/>
-      <c r="AG7" s="380"/>
-      <c r="AH7" s="380"/>
-      <c r="AI7" s="393"/>
+      <c r="AD7" s="329"/>
+      <c r="AE7" s="329"/>
+      <c r="AF7" s="329"/>
+      <c r="AG7" s="329"/>
+      <c r="AH7" s="329"/>
+      <c r="AI7" s="342"/>
     </row>
     <row r="8" spans="1:47" s="193" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="382" t="s">
+      <c r="B8" s="331" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="382" t="s">
+      <c r="C8" s="220"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="383"/>
-      <c r="I8" s="385"/>
-      <c r="J8" s="382" t="s">
+      <c r="H8" s="332"/>
+      <c r="I8" s="334"/>
+      <c r="J8" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="383"/>
-      <c r="L8" s="383"/>
-      <c r="M8" s="383"/>
-      <c r="N8" s="383"/>
-      <c r="O8" s="383"/>
-      <c r="P8" s="385"/>
-      <c r="Q8" s="386" t="s">
+      <c r="K8" s="332"/>
+      <c r="L8" s="332"/>
+      <c r="M8" s="332"/>
+      <c r="N8" s="332"/>
+      <c r="O8" s="332"/>
+      <c r="P8" s="334"/>
+      <c r="Q8" s="335" t="s">
         <v>105</v>
       </c>
-      <c r="R8" s="388"/>
-      <c r="S8" s="386" t="s">
+      <c r="R8" s="337"/>
+      <c r="S8" s="335" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="387"/>
-      <c r="U8" s="388"/>
-      <c r="V8" s="382" t="s">
+      <c r="T8" s="336"/>
+      <c r="U8" s="337"/>
+      <c r="V8" s="331" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="383"/>
-      <c r="X8" s="383"/>
-      <c r="Y8" s="383"/>
-      <c r="Z8" s="383"/>
-      <c r="AA8" s="383"/>
-      <c r="AB8" s="384"/>
-      <c r="AC8" s="389" t="s">
+      <c r="W8" s="332"/>
+      <c r="X8" s="332"/>
+      <c r="Y8" s="332"/>
+      <c r="Z8" s="332"/>
+      <c r="AA8" s="332"/>
+      <c r="AB8" s="333"/>
+      <c r="AC8" s="338" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="390"/>
-      <c r="AE8" s="390"/>
-      <c r="AF8" s="390"/>
-      <c r="AG8" s="390"/>
-      <c r="AH8" s="391" t="s">
+      <c r="AD8" s="339"/>
+      <c r="AE8" s="339"/>
+      <c r="AF8" s="339"/>
+      <c r="AG8" s="339"/>
+      <c r="AH8" s="340" t="s">
         <v>80</v>
       </c>
-      <c r="AI8" s="391"/>
-    </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI8" s="340"/>
+    </row>
+    <row r="9" spans="1:47" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="178">
         <v>1</v>
       </c>
-      <c r="B9" s="331" t="s">
+      <c r="B9" s="345" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="331" t="s">
+      <c r="C9" s="346"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="347"/>
+      <c r="G9" s="345" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="332"/>
-      <c r="I9" s="333"/>
-      <c r="J9" s="331" t="s">
+      <c r="H9" s="346"/>
+      <c r="I9" s="347"/>
+      <c r="J9" s="345" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="374"/>
-      <c r="L9" s="374"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="374"/>
-      <c r="O9" s="374"/>
-      <c r="P9" s="375"/>
-      <c r="Q9" s="338">
+      <c r="K9" s="353"/>
+      <c r="L9" s="353"/>
+      <c r="M9" s="353"/>
+      <c r="N9" s="353"/>
+      <c r="O9" s="353"/>
+      <c r="P9" s="354"/>
+      <c r="Q9" s="391">
         <v>3588</v>
       </c>
-      <c r="R9" s="339"/>
-      <c r="S9" s="342" t="s">
+      <c r="R9" s="392"/>
+      <c r="S9" s="395" t="s">
         <v>126</v>
       </c>
-      <c r="T9" s="343"/>
-      <c r="U9" s="344"/>
-      <c r="V9" s="331" t="s">
+      <c r="T9" s="396"/>
+      <c r="U9" s="397"/>
+      <c r="V9" s="345" t="s">
         <v>114</v>
       </c>
-      <c r="W9" s="332"/>
-      <c r="X9" s="332"/>
-      <c r="Y9" s="332"/>
-      <c r="Z9" s="332"/>
-      <c r="AA9" s="332"/>
-      <c r="AB9" s="373"/>
-      <c r="AC9" s="376" t="s">
+      <c r="W9" s="346"/>
+      <c r="X9" s="346"/>
+      <c r="Y9" s="346"/>
+      <c r="Z9" s="346"/>
+      <c r="AA9" s="346"/>
+      <c r="AB9" s="351"/>
+      <c r="AC9" s="357" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="331"/>
-      <c r="AE9" s="332"/>
-      <c r="AF9" s="332"/>
-      <c r="AG9" s="333"/>
-      <c r="AH9" s="340"/>
-      <c r="AI9" s="341"/>
-    </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD9" s="423" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE9" s="424"/>
+      <c r="AF9" s="424"/>
+      <c r="AG9" s="425"/>
+      <c r="AH9" s="393" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI9" s="394"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A10" s="178">
         <v>2</v>
       </c>
-      <c r="B10" s="326"/>
-      <c r="C10" s="327"/>
-      <c r="D10" s="327"/>
-      <c r="E10" s="327"/>
-      <c r="F10" s="328"/>
-      <c r="G10" s="326"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="328"/>
-      <c r="J10" s="326"/>
-      <c r="K10" s="335"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="336"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
-      <c r="S10" s="345"/>
-      <c r="T10" s="346"/>
-      <c r="U10" s="347"/>
-      <c r="V10" s="326"/>
-      <c r="W10" s="327"/>
-      <c r="X10" s="327"/>
-      <c r="Y10" s="327"/>
-      <c r="Z10" s="327"/>
-      <c r="AA10" s="327"/>
-      <c r="AB10" s="337"/>
-      <c r="AC10" s="377"/>
-      <c r="AD10" s="326"/>
-      <c r="AE10" s="327"/>
-      <c r="AF10" s="327"/>
-      <c r="AG10" s="328"/>
-      <c r="AH10" s="324"/>
-      <c r="AI10" s="325"/>
+      <c r="B10" s="348"/>
+      <c r="C10" s="349"/>
+      <c r="D10" s="349"/>
+      <c r="E10" s="349"/>
+      <c r="F10" s="350"/>
+      <c r="G10" s="348"/>
+      <c r="H10" s="349"/>
+      <c r="I10" s="350"/>
+      <c r="J10" s="348"/>
+      <c r="K10" s="355"/>
+      <c r="L10" s="355"/>
+      <c r="M10" s="355"/>
+      <c r="N10" s="355"/>
+      <c r="O10" s="355"/>
+      <c r="P10" s="356"/>
+      <c r="Q10" s="363"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="368"/>
+      <c r="T10" s="369"/>
+      <c r="U10" s="370"/>
+      <c r="V10" s="348"/>
+      <c r="W10" s="349"/>
+      <c r="X10" s="349"/>
+      <c r="Y10" s="349"/>
+      <c r="Z10" s="349"/>
+      <c r="AA10" s="349"/>
+      <c r="AB10" s="352"/>
+      <c r="AC10" s="358"/>
+      <c r="AD10" s="348"/>
+      <c r="AE10" s="349"/>
+      <c r="AF10" s="349"/>
+      <c r="AG10" s="350"/>
+      <c r="AH10" s="343"/>
+      <c r="AI10" s="344"/>
       <c r="AM10" s="111"/>
       <c r="AN10" s="111"/>
       <c r="AO10" s="111"/>
       <c r="AP10" s="111"/>
       <c r="AQ10" s="111"/>
     </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A11" s="178">
         <v>3</v>
       </c>
-      <c r="B11" s="326"/>
-      <c r="C11" s="327"/>
-      <c r="D11" s="327"/>
-      <c r="E11" s="327"/>
-      <c r="F11" s="328"/>
-      <c r="G11" s="350"/>
-      <c r="H11" s="351"/>
-      <c r="I11" s="352"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="335"/>
-      <c r="L11" s="335"/>
-      <c r="M11" s="335"/>
-      <c r="N11" s="335"/>
-      <c r="O11" s="335"/>
-      <c r="P11" s="336"/>
-      <c r="Q11" s="329"/>
-      <c r="R11" s="330"/>
-      <c r="S11" s="345"/>
-      <c r="T11" s="346"/>
-      <c r="U11" s="347"/>
-      <c r="V11" s="326"/>
-      <c r="W11" s="327"/>
-      <c r="X11" s="327"/>
-      <c r="Y11" s="327"/>
-      <c r="Z11" s="327"/>
-      <c r="AA11" s="327"/>
-      <c r="AB11" s="337"/>
-      <c r="AC11" s="377"/>
-      <c r="AD11" s="334"/>
-      <c r="AE11" s="335"/>
-      <c r="AF11" s="335"/>
-      <c r="AG11" s="336"/>
-      <c r="AH11" s="324"/>
-      <c r="AI11" s="325"/>
+      <c r="B11" s="348"/>
+      <c r="C11" s="349"/>
+      <c r="D11" s="349"/>
+      <c r="E11" s="349"/>
+      <c r="F11" s="350"/>
+      <c r="G11" s="365"/>
+      <c r="H11" s="366"/>
+      <c r="I11" s="367"/>
+      <c r="J11" s="348"/>
+      <c r="K11" s="355"/>
+      <c r="L11" s="355"/>
+      <c r="M11" s="355"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="355"/>
+      <c r="P11" s="356"/>
+      <c r="Q11" s="363"/>
+      <c r="R11" s="364"/>
+      <c r="S11" s="368"/>
+      <c r="T11" s="369"/>
+      <c r="U11" s="370"/>
+      <c r="V11" s="348"/>
+      <c r="W11" s="349"/>
+      <c r="X11" s="349"/>
+      <c r="Y11" s="349"/>
+      <c r="Z11" s="349"/>
+      <c r="AA11" s="349"/>
+      <c r="AB11" s="352"/>
+      <c r="AC11" s="358"/>
+      <c r="AD11" s="385"/>
+      <c r="AE11" s="355"/>
+      <c r="AF11" s="355"/>
+      <c r="AG11" s="356"/>
+      <c r="AH11" s="343"/>
+      <c r="AI11" s="344"/>
       <c r="AM11" s="110"/>
       <c r="AN11" s="110"/>
       <c r="AO11" s="110"/>
       <c r="AP11" s="110"/>
       <c r="AQ11" s="111"/>
     </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A12" s="178">
         <v>4</v>
       </c>
-      <c r="B12" s="326"/>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="328"/>
-      <c r="G12" s="350"/>
-      <c r="H12" s="351"/>
-      <c r="I12" s="352"/>
-      <c r="J12" s="326"/>
-      <c r="K12" s="335"/>
-      <c r="L12" s="335"/>
-      <c r="M12" s="335"/>
-      <c r="N12" s="335"/>
-      <c r="O12" s="335"/>
-      <c r="P12" s="336"/>
-      <c r="Q12" s="329"/>
-      <c r="R12" s="330"/>
-      <c r="S12" s="345"/>
-      <c r="T12" s="346"/>
-      <c r="U12" s="347"/>
-      <c r="V12" s="326"/>
-      <c r="W12" s="327"/>
-      <c r="X12" s="327"/>
-      <c r="Y12" s="327"/>
-      <c r="Z12" s="327"/>
-      <c r="AA12" s="327"/>
-      <c r="AB12" s="337"/>
-      <c r="AC12" s="377"/>
-      <c r="AD12" s="334"/>
-      <c r="AE12" s="335"/>
-      <c r="AF12" s="335"/>
-      <c r="AG12" s="336"/>
-      <c r="AH12" s="324"/>
-      <c r="AI12" s="325"/>
+      <c r="B12" s="348"/>
+      <c r="C12" s="349"/>
+      <c r="D12" s="349"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="350"/>
+      <c r="G12" s="365"/>
+      <c r="H12" s="366"/>
+      <c r="I12" s="367"/>
+      <c r="J12" s="348"/>
+      <c r="K12" s="355"/>
+      <c r="L12" s="355"/>
+      <c r="M12" s="355"/>
+      <c r="N12" s="355"/>
+      <c r="O12" s="355"/>
+      <c r="P12" s="356"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="364"/>
+      <c r="S12" s="368"/>
+      <c r="T12" s="369"/>
+      <c r="U12" s="370"/>
+      <c r="V12" s="348"/>
+      <c r="W12" s="349"/>
+      <c r="X12" s="349"/>
+      <c r="Y12" s="349"/>
+      <c r="Z12" s="349"/>
+      <c r="AA12" s="349"/>
+      <c r="AB12" s="352"/>
+      <c r="AC12" s="358"/>
+      <c r="AD12" s="385"/>
+      <c r="AE12" s="355"/>
+      <c r="AF12" s="355"/>
+      <c r="AG12" s="356"/>
+      <c r="AH12" s="343"/>
+      <c r="AI12" s="344"/>
       <c r="AM12" s="110"/>
       <c r="AN12" s="110"/>
       <c r="AO12" s="110"/>
@@ -13407,40 +13434,40 @@
       <c r="A13" s="178">
         <v>5</v>
       </c>
-      <c r="B13" s="362"/>
-      <c r="C13" s="363"/>
-      <c r="D13" s="363"/>
-      <c r="E13" s="363"/>
-      <c r="F13" s="364"/>
-      <c r="G13" s="326"/>
-      <c r="H13" s="327"/>
-      <c r="I13" s="328"/>
-      <c r="J13" s="326"/>
-      <c r="K13" s="327"/>
-      <c r="L13" s="327"/>
-      <c r="M13" s="327"/>
-      <c r="N13" s="327"/>
-      <c r="O13" s="327"/>
-      <c r="P13" s="328"/>
-      <c r="Q13" s="329"/>
-      <c r="R13" s="330"/>
-      <c r="S13" s="326"/>
-      <c r="T13" s="327"/>
-      <c r="U13" s="328"/>
-      <c r="V13" s="326"/>
-      <c r="W13" s="327"/>
-      <c r="X13" s="327"/>
-      <c r="Y13" s="327"/>
-      <c r="Z13" s="327"/>
-      <c r="AA13" s="327"/>
-      <c r="AB13" s="337"/>
-      <c r="AC13" s="377"/>
-      <c r="AD13" s="334"/>
-      <c r="AE13" s="335"/>
-      <c r="AF13" s="335"/>
-      <c r="AG13" s="336"/>
-      <c r="AH13" s="324"/>
-      <c r="AI13" s="325"/>
+      <c r="B13" s="360"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="361"/>
+      <c r="F13" s="362"/>
+      <c r="G13" s="348"/>
+      <c r="H13" s="349"/>
+      <c r="I13" s="350"/>
+      <c r="J13" s="348"/>
+      <c r="K13" s="349"/>
+      <c r="L13" s="349"/>
+      <c r="M13" s="349"/>
+      <c r="N13" s="349"/>
+      <c r="O13" s="349"/>
+      <c r="P13" s="350"/>
+      <c r="Q13" s="363"/>
+      <c r="R13" s="364"/>
+      <c r="S13" s="348"/>
+      <c r="T13" s="349"/>
+      <c r="U13" s="350"/>
+      <c r="V13" s="348"/>
+      <c r="W13" s="349"/>
+      <c r="X13" s="349"/>
+      <c r="Y13" s="349"/>
+      <c r="Z13" s="349"/>
+      <c r="AA13" s="349"/>
+      <c r="AB13" s="352"/>
+      <c r="AC13" s="358"/>
+      <c r="AD13" s="385"/>
+      <c r="AE13" s="355"/>
+      <c r="AF13" s="355"/>
+      <c r="AG13" s="356"/>
+      <c r="AH13" s="343"/>
+      <c r="AI13" s="344"/>
       <c r="AM13" s="112"/>
       <c r="AN13" s="112"/>
       <c r="AO13" s="112"/>
@@ -13451,165 +13478,165 @@
       <c r="A14" s="178">
         <v>6</v>
       </c>
-      <c r="B14" s="362"/>
-      <c r="C14" s="363"/>
-      <c r="D14" s="363"/>
-      <c r="E14" s="363"/>
-      <c r="F14" s="364"/>
-      <c r="G14" s="326"/>
-      <c r="H14" s="327"/>
-      <c r="I14" s="328"/>
-      <c r="J14" s="326"/>
-      <c r="K14" s="327"/>
-      <c r="L14" s="327"/>
-      <c r="M14" s="327"/>
-      <c r="N14" s="327"/>
-      <c r="O14" s="327"/>
-      <c r="P14" s="328"/>
-      <c r="Q14" s="329"/>
-      <c r="R14" s="330"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="327"/>
-      <c r="U14" s="328"/>
-      <c r="V14" s="326"/>
-      <c r="W14" s="327"/>
-      <c r="X14" s="327"/>
-      <c r="Y14" s="327"/>
-      <c r="Z14" s="327"/>
-      <c r="AA14" s="327"/>
-      <c r="AB14" s="337"/>
-      <c r="AC14" s="377"/>
-      <c r="AD14" s="334"/>
-      <c r="AE14" s="335"/>
-      <c r="AF14" s="335"/>
-      <c r="AG14" s="336"/>
-      <c r="AH14" s="324"/>
-      <c r="AI14" s="325"/>
+      <c r="B14" s="360"/>
+      <c r="C14" s="361"/>
+      <c r="D14" s="361"/>
+      <c r="E14" s="361"/>
+      <c r="F14" s="362"/>
+      <c r="G14" s="348"/>
+      <c r="H14" s="349"/>
+      <c r="I14" s="350"/>
+      <c r="J14" s="348"/>
+      <c r="K14" s="349"/>
+      <c r="L14" s="349"/>
+      <c r="M14" s="349"/>
+      <c r="N14" s="349"/>
+      <c r="O14" s="349"/>
+      <c r="P14" s="350"/>
+      <c r="Q14" s="363"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="348"/>
+      <c r="T14" s="349"/>
+      <c r="U14" s="350"/>
+      <c r="V14" s="348"/>
+      <c r="W14" s="349"/>
+      <c r="X14" s="349"/>
+      <c r="Y14" s="349"/>
+      <c r="Z14" s="349"/>
+      <c r="AA14" s="349"/>
+      <c r="AB14" s="352"/>
+      <c r="AC14" s="358"/>
+      <c r="AD14" s="385"/>
+      <c r="AE14" s="355"/>
+      <c r="AF14" s="355"/>
+      <c r="AG14" s="356"/>
+      <c r="AH14" s="343"/>
+      <c r="AI14" s="344"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A15" s="179">
         <v>7</v>
       </c>
-      <c r="B15" s="362"/>
-      <c r="C15" s="363"/>
-      <c r="D15" s="363"/>
-      <c r="E15" s="363"/>
-      <c r="F15" s="364"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="328"/>
-      <c r="J15" s="326"/>
-      <c r="K15" s="327"/>
-      <c r="L15" s="327"/>
-      <c r="M15" s="327"/>
-      <c r="N15" s="327"/>
-      <c r="O15" s="327"/>
-      <c r="P15" s="328"/>
-      <c r="Q15" s="329"/>
-      <c r="R15" s="330"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="327"/>
-      <c r="U15" s="328"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="327"/>
-      <c r="X15" s="327"/>
-      <c r="Y15" s="327"/>
-      <c r="Z15" s="327"/>
-      <c r="AA15" s="327"/>
-      <c r="AB15" s="337"/>
-      <c r="AC15" s="377"/>
-      <c r="AD15" s="334"/>
-      <c r="AE15" s="335"/>
-      <c r="AF15" s="335"/>
-      <c r="AG15" s="336"/>
-      <c r="AH15" s="324"/>
-      <c r="AI15" s="325"/>
+      <c r="B15" s="360"/>
+      <c r="C15" s="361"/>
+      <c r="D15" s="361"/>
+      <c r="E15" s="361"/>
+      <c r="F15" s="362"/>
+      <c r="G15" s="348"/>
+      <c r="H15" s="349"/>
+      <c r="I15" s="350"/>
+      <c r="J15" s="348"/>
+      <c r="K15" s="349"/>
+      <c r="L15" s="349"/>
+      <c r="M15" s="349"/>
+      <c r="N15" s="349"/>
+      <c r="O15" s="349"/>
+      <c r="P15" s="350"/>
+      <c r="Q15" s="363"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="348"/>
+      <c r="T15" s="349"/>
+      <c r="U15" s="350"/>
+      <c r="V15" s="348"/>
+      <c r="W15" s="349"/>
+      <c r="X15" s="349"/>
+      <c r="Y15" s="349"/>
+      <c r="Z15" s="349"/>
+      <c r="AA15" s="349"/>
+      <c r="AB15" s="352"/>
+      <c r="AC15" s="358"/>
+      <c r="AD15" s="385"/>
+      <c r="AE15" s="355"/>
+      <c r="AF15" s="355"/>
+      <c r="AG15" s="356"/>
+      <c r="AH15" s="343"/>
+      <c r="AI15" s="344"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A16" s="179">
         <v>8</v>
       </c>
-      <c r="B16" s="362"/>
-      <c r="C16" s="363"/>
-      <c r="D16" s="363"/>
-      <c r="E16" s="363"/>
-      <c r="F16" s="364"/>
-      <c r="G16" s="326"/>
-      <c r="H16" s="327"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="326"/>
-      <c r="K16" s="327"/>
-      <c r="L16" s="327"/>
-      <c r="M16" s="327"/>
-      <c r="N16" s="327"/>
-      <c r="O16" s="327"/>
-      <c r="P16" s="328"/>
-      <c r="Q16" s="329"/>
-      <c r="R16" s="330"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="327"/>
-      <c r="U16" s="328"/>
-      <c r="V16" s="326"/>
-      <c r="W16" s="327"/>
-      <c r="X16" s="327"/>
-      <c r="Y16" s="327"/>
-      <c r="Z16" s="327"/>
-      <c r="AA16" s="327"/>
-      <c r="AB16" s="337"/>
-      <c r="AC16" s="377"/>
-      <c r="AD16" s="334"/>
-      <c r="AE16" s="335"/>
-      <c r="AF16" s="335"/>
-      <c r="AG16" s="336"/>
-      <c r="AH16" s="324"/>
-      <c r="AI16" s="325"/>
+      <c r="B16" s="360"/>
+      <c r="C16" s="361"/>
+      <c r="D16" s="361"/>
+      <c r="E16" s="361"/>
+      <c r="F16" s="362"/>
+      <c r="G16" s="348"/>
+      <c r="H16" s="349"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="348"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="349"/>
+      <c r="M16" s="349"/>
+      <c r="N16" s="349"/>
+      <c r="O16" s="349"/>
+      <c r="P16" s="350"/>
+      <c r="Q16" s="363"/>
+      <c r="R16" s="364"/>
+      <c r="S16" s="348"/>
+      <c r="T16" s="349"/>
+      <c r="U16" s="350"/>
+      <c r="V16" s="348"/>
+      <c r="W16" s="349"/>
+      <c r="X16" s="349"/>
+      <c r="Y16" s="349"/>
+      <c r="Z16" s="349"/>
+      <c r="AA16" s="349"/>
+      <c r="AB16" s="352"/>
+      <c r="AC16" s="358"/>
+      <c r="AD16" s="385"/>
+      <c r="AE16" s="355"/>
+      <c r="AF16" s="355"/>
+      <c r="AG16" s="356"/>
+      <c r="AH16" s="343"/>
+      <c r="AI16" s="344"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A17" s="180">
         <v>9</v>
       </c>
-      <c r="B17" s="365"/>
-      <c r="C17" s="366"/>
-      <c r="D17" s="366"/>
-      <c r="E17" s="366"/>
-      <c r="F17" s="367"/>
-      <c r="G17" s="354"/>
-      <c r="H17" s="355"/>
-      <c r="I17" s="359"/>
-      <c r="J17" s="354"/>
-      <c r="K17" s="355"/>
-      <c r="L17" s="355"/>
-      <c r="M17" s="355"/>
-      <c r="N17" s="355"/>
-      <c r="O17" s="355"/>
-      <c r="P17" s="359"/>
-      <c r="Q17" s="360"/>
-      <c r="R17" s="361"/>
-      <c r="S17" s="354"/>
-      <c r="T17" s="355"/>
-      <c r="U17" s="359"/>
-      <c r="V17" s="354"/>
-      <c r="W17" s="355"/>
-      <c r="X17" s="355"/>
-      <c r="Y17" s="355"/>
-      <c r="Z17" s="355"/>
-      <c r="AA17" s="355"/>
-      <c r="AB17" s="356"/>
-      <c r="AC17" s="378"/>
-      <c r="AD17" s="368"/>
-      <c r="AE17" s="369"/>
-      <c r="AF17" s="369"/>
-      <c r="AG17" s="370"/>
-      <c r="AH17" s="371"/>
-      <c r="AI17" s="372"/>
+      <c r="B17" s="382"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="383"/>
+      <c r="F17" s="384"/>
+      <c r="G17" s="374"/>
+      <c r="H17" s="375"/>
+      <c r="I17" s="379"/>
+      <c r="J17" s="374"/>
+      <c r="K17" s="375"/>
+      <c r="L17" s="375"/>
+      <c r="M17" s="375"/>
+      <c r="N17" s="375"/>
+      <c r="O17" s="375"/>
+      <c r="P17" s="379"/>
+      <c r="Q17" s="380"/>
+      <c r="R17" s="381"/>
+      <c r="S17" s="374"/>
+      <c r="T17" s="375"/>
+      <c r="U17" s="379"/>
+      <c r="V17" s="374"/>
+      <c r="W17" s="375"/>
+      <c r="X17" s="375"/>
+      <c r="Y17" s="375"/>
+      <c r="Z17" s="375"/>
+      <c r="AA17" s="375"/>
+      <c r="AB17" s="376"/>
+      <c r="AC17" s="359"/>
+      <c r="AD17" s="386"/>
+      <c r="AE17" s="387"/>
+      <c r="AF17" s="387"/>
+      <c r="AG17" s="388"/>
+      <c r="AH17" s="389"/>
+      <c r="AI17" s="390"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="357"/>
-      <c r="B18" s="358"/>
-      <c r="C18" s="358"/>
-      <c r="D18" s="358"/>
-      <c r="E18" s="358"/>
-      <c r="F18" s="358"/>
+      <c r="A18" s="377"/>
+      <c r="B18" s="378"/>
+      <c r="C18" s="378"/>
+      <c r="D18" s="378"/>
+      <c r="E18" s="378"/>
+      <c r="F18" s="378"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -13633,23 +13660,23 @@
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="39"/>
-      <c r="AD18" s="353"/>
-      <c r="AE18" s="353"/>
-      <c r="AF18" s="353"/>
-      <c r="AG18" s="353"/>
-      <c r="AH18" s="353"/>
+      <c r="AD18" s="373"/>
+      <c r="AE18" s="373"/>
+      <c r="AF18" s="373"/>
+      <c r="AG18" s="373"/>
+      <c r="AH18" s="373"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="33"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="348" t="s">
+      <c r="A19" s="371" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="349"/>
-      <c r="C19" s="349"/>
-      <c r="D19" s="349"/>
-      <c r="E19" s="349"/>
-      <c r="F19" s="349"/>
+      <c r="B19" s="372"/>
+      <c r="C19" s="372"/>
+      <c r="D19" s="372"/>
+      <c r="E19" s="372"/>
+      <c r="F19" s="372"/>
       <c r="G19" s="91"/>
       <c r="H19" s="134"/>
       <c r="I19" s="134"/>
@@ -14164,23 +14191,68 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A3:D3"/>
@@ -14205,68 +14277,23 @@
     <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -14296,7 +14323,7 @@
   <dimension ref="A1:DQ24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14312,160 +14339,160 @@
       <c r="A1" s="278" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="277" t="str">
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="281" t="s">
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="283"/>
-      <c r="S1" s="290" t="str">
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="284"/>
+      <c r="S1" s="291" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="259"/>
       <c r="AA1" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="242" t="str">
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="397">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="417">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="398"/>
-      <c r="AI1" s="399"/>
+      <c r="AH1" s="418"/>
+      <c r="AI1" s="419"/>
     </row>
     <row r="2" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="277" t="str">
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="287"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
       <c r="AA2" s="278" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="242" t="str">
+      <c r="AB2" s="280"/>
+      <c r="AC2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="397">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="417">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44819</v>
       </c>
-      <c r="AH2" s="398"/>
-      <c r="AI2" s="399"/>
+      <c r="AH2" s="418"/>
+      <c r="AI2" s="419"/>
     </row>
     <row r="3" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="277" t="str">
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="281" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="288"/>
-      <c r="Q3" s="288"/>
-      <c r="R3" s="289"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="288"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
       <c r="AA3" s="278"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="242" t="str">
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="397" t="str">
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="417" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="398"/>
-      <c r="AI3" s="399"/>
+      <c r="AH3" s="418"/>
+      <c r="AI3" s="419"/>
     </row>
     <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:121" s="141" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
@@ -14486,69 +14513,69 @@
       <c r="A8" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="394" t="s">
+      <c r="B8" s="409" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="395"/>
-      <c r="D8" s="395"/>
-      <c r="E8" s="395"/>
-      <c r="F8" s="396"/>
-      <c r="G8" s="394" t="s">
+      <c r="C8" s="410"/>
+      <c r="D8" s="410"/>
+      <c r="E8" s="410"/>
+      <c r="F8" s="411"/>
+      <c r="G8" s="409" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="395"/>
-      <c r="I8" s="395"/>
-      <c r="J8" s="395"/>
-      <c r="K8" s="396"/>
-      <c r="L8" s="394" t="s">
+      <c r="H8" s="410"/>
+      <c r="I8" s="410"/>
+      <c r="J8" s="410"/>
+      <c r="K8" s="411"/>
+      <c r="L8" s="409" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="395"/>
-      <c r="N8" s="395"/>
-      <c r="O8" s="395"/>
-      <c r="P8" s="396"/>
+      <c r="M8" s="410"/>
+      <c r="N8" s="410"/>
+      <c r="O8" s="410"/>
+      <c r="P8" s="411"/>
       <c r="Q8" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="411" t="s">
+      <c r="R8" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="411"/>
-      <c r="T8" s="411"/>
-      <c r="U8" s="411"/>
-      <c r="V8" s="400" t="s">
+      <c r="S8" s="412"/>
+      <c r="T8" s="412"/>
+      <c r="U8" s="412"/>
+      <c r="V8" s="420" t="s">
         <v>106</v>
       </c>
-      <c r="W8" s="400"/>
-      <c r="X8" s="401" t="s">
+      <c r="W8" s="420"/>
+      <c r="X8" s="421" t="s">
         <v>63</v>
       </c>
-      <c r="Y8" s="402"/>
-      <c r="Z8" s="394" t="s">
+      <c r="Y8" s="422"/>
+      <c r="Z8" s="409" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="396"/>
-      <c r="AB8" s="394" t="s">
+      <c r="AA8" s="411"/>
+      <c r="AB8" s="409" t="s">
         <v>82</v>
       </c>
-      <c r="AC8" s="396"/>
-      <c r="AD8" s="394" t="s">
+      <c r="AC8" s="411"/>
+      <c r="AD8" s="409" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" s="396"/>
-      <c r="AF8" s="394" t="s">
+      <c r="AE8" s="411"/>
+      <c r="AF8" s="409" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="395"/>
-      <c r="AH8" s="396"/>
-      <c r="AI8" s="394" t="s">
+      <c r="AG8" s="410"/>
+      <c r="AH8" s="411"/>
+      <c r="AI8" s="409" t="s">
         <v>61</v>
       </c>
-      <c r="AJ8" s="395"/>
-      <c r="AK8" s="395"/>
-      <c r="AL8" s="395"/>
-      <c r="AM8" s="395"/>
-      <c r="AN8" s="396"/>
+      <c r="AJ8" s="410"/>
+      <c r="AK8" s="410"/>
+      <c r="AL8" s="410"/>
+      <c r="AM8" s="410"/>
+      <c r="AN8" s="411"/>
       <c r="BN8" s="197"/>
       <c r="BO8" s="197"/>
       <c r="BP8" s="197"/>
@@ -14610,69 +14637,69 @@
       <c r="A9" s="149">
         <v>1</v>
       </c>
-      <c r="B9" s="408" t="s">
+      <c r="B9" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="269"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="270"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="206"/>
       <c r="I9" s="206"/>
       <c r="J9" s="206"/>
       <c r="K9" s="207"/>
-      <c r="L9" s="405" t="s">
+      <c r="L9" s="267" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="221"/>
       <c r="Q9" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="405" t="s">
+      <c r="R9" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="407"/>
-      <c r="T9" s="407"/>
-      <c r="U9" s="406"/>
-      <c r="V9" s="419">
+      <c r="S9" s="398"/>
+      <c r="T9" s="398"/>
+      <c r="U9" s="399"/>
+      <c r="V9" s="402">
         <v>10</v>
       </c>
-      <c r="W9" s="420"/>
-      <c r="X9" s="403" t="s">
+      <c r="W9" s="403"/>
+      <c r="X9" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y9" s="404"/>
-      <c r="Z9" s="405" t="s">
+      <c r="Y9" s="405"/>
+      <c r="Z9" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA9" s="406"/>
-      <c r="AB9" s="405" t="s">
+      <c r="AA9" s="399"/>
+      <c r="AB9" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC9" s="406"/>
-      <c r="AD9" s="403" t="s">
+      <c r="AC9" s="399"/>
+      <c r="AD9" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE9" s="404"/>
-      <c r="AF9" s="405" t="s">
+      <c r="AE9" s="405"/>
+      <c r="AF9" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG9" s="407"/>
-      <c r="AH9" s="406"/>
-      <c r="AI9" s="408" t="s">
+      <c r="AG9" s="398"/>
+      <c r="AH9" s="399"/>
+      <c r="AI9" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ9" s="409"/>
-      <c r="AK9" s="409"/>
-      <c r="AL9" s="409"/>
-      <c r="AM9" s="409"/>
-      <c r="AN9" s="410"/>
+      <c r="AJ9" s="400"/>
+      <c r="AK9" s="400"/>
+      <c r="AL9" s="400"/>
+      <c r="AM9" s="400"/>
+      <c r="AN9" s="401"/>
       <c r="AS9" s="120"/>
       <c r="AT9" s="120"/>
       <c r="AU9" s="140"/>
@@ -14738,70 +14765,70 @@
       <c r="A10" s="149">
         <v>2</v>
       </c>
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="212" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="270"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="214"/>
       <c r="G10" s="205" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="206"/>
       <c r="I10" s="206"/>
       <c r="J10" s="206"/>
       <c r="K10" s="207"/>
-      <c r="L10" s="405" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="220"/>
+      <c r="L10" s="267" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="221"/>
       <c r="Q10" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="405" t="s">
+      <c r="R10" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="407"/>
-      <c r="T10" s="407"/>
-      <c r="U10" s="406"/>
-      <c r="V10" s="419">
+      <c r="S10" s="398"/>
+      <c r="T10" s="398"/>
+      <c r="U10" s="399"/>
+      <c r="V10" s="402">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="420"/>
-      <c r="X10" s="403" t="s">
+      <c r="W10" s="403"/>
+      <c r="X10" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y10" s="404"/>
-      <c r="Z10" s="405" t="s">
+      <c r="Y10" s="405"/>
+      <c r="Z10" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA10" s="406"/>
-      <c r="AB10" s="405" t="s">
+      <c r="AA10" s="399"/>
+      <c r="AB10" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC10" s="406"/>
-      <c r="AD10" s="403" t="s">
+      <c r="AC10" s="399"/>
+      <c r="AD10" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE10" s="404"/>
-      <c r="AF10" s="405" t="s">
+      <c r="AE10" s="405"/>
+      <c r="AF10" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG10" s="407"/>
-      <c r="AH10" s="406"/>
-      <c r="AI10" s="408" t="s">
+      <c r="AG10" s="398"/>
+      <c r="AH10" s="399"/>
+      <c r="AI10" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ10" s="409"/>
-      <c r="AK10" s="409"/>
-      <c r="AL10" s="409"/>
-      <c r="AM10" s="409"/>
-      <c r="AN10" s="410"/>
+      <c r="AJ10" s="400"/>
+      <c r="AK10" s="400"/>
+      <c r="AL10" s="400"/>
+      <c r="AM10" s="400"/>
+      <c r="AN10" s="401"/>
       <c r="AS10" s="120"/>
       <c r="AT10" s="120"/>
       <c r="AU10" s="140"/>
@@ -14867,70 +14894,70 @@
       <c r="A11" s="149">
         <v>3</v>
       </c>
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="212" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="269"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="270"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
       <c r="G11" s="208" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="209"/>
       <c r="I11" s="209"/>
       <c r="J11" s="209"/>
       <c r="K11" s="210"/>
-      <c r="L11" s="218" t="s">
+      <c r="L11" s="219" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="221"/>
       <c r="Q11" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="405" t="s">
+      <c r="R11" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="407"/>
-      <c r="T11" s="407"/>
-      <c r="U11" s="406"/>
-      <c r="V11" s="419">
+      <c r="S11" s="398"/>
+      <c r="T11" s="398"/>
+      <c r="U11" s="399"/>
+      <c r="V11" s="402">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="420"/>
-      <c r="X11" s="403" t="s">
+      <c r="W11" s="403"/>
+      <c r="X11" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y11" s="404"/>
-      <c r="Z11" s="405" t="s">
+      <c r="Y11" s="405"/>
+      <c r="Z11" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA11" s="406"/>
-      <c r="AB11" s="405" t="s">
+      <c r="AA11" s="399"/>
+      <c r="AB11" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC11" s="406"/>
-      <c r="AD11" s="403" t="s">
+      <c r="AC11" s="399"/>
+      <c r="AD11" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE11" s="404"/>
-      <c r="AF11" s="405" t="s">
+      <c r="AE11" s="405"/>
+      <c r="AF11" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG11" s="407"/>
-      <c r="AH11" s="406"/>
-      <c r="AI11" s="408" t="s">
+      <c r="AG11" s="398"/>
+      <c r="AH11" s="399"/>
+      <c r="AI11" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ11" s="409"/>
-      <c r="AK11" s="409"/>
-      <c r="AL11" s="409"/>
-      <c r="AM11" s="409"/>
-      <c r="AN11" s="410"/>
+      <c r="AJ11" s="400"/>
+      <c r="AK11" s="400"/>
+      <c r="AL11" s="400"/>
+      <c r="AM11" s="400"/>
+      <c r="AN11" s="401"/>
       <c r="AS11" s="120"/>
       <c r="AT11" s="120"/>
       <c r="AU11" s="140"/>
@@ -14996,70 +15023,70 @@
       <c r="A12" s="149">
         <v>4</v>
       </c>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="212" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="269"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="269"/>
-      <c r="F12" s="270"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="214"/>
       <c r="G12" s="205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="206"/>
       <c r="I12" s="206"/>
       <c r="J12" s="206"/>
       <c r="K12" s="207"/>
-      <c r="L12" s="218" t="s">
+      <c r="L12" s="219" t="s">
         <v>131</v>
       </c>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="220"/>
+      <c r="P12" s="221"/>
       <c r="Q12" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="405" t="s">
+      <c r="R12" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="407"/>
-      <c r="T12" s="407"/>
-      <c r="U12" s="406"/>
-      <c r="V12" s="419">
+      <c r="S12" s="398"/>
+      <c r="T12" s="398"/>
+      <c r="U12" s="399"/>
+      <c r="V12" s="402">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W12" s="420"/>
-      <c r="X12" s="403" t="s">
+      <c r="W12" s="403"/>
+      <c r="X12" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y12" s="404"/>
-      <c r="Z12" s="405" t="s">
+      <c r="Y12" s="405"/>
+      <c r="Z12" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA12" s="406"/>
-      <c r="AB12" s="405" t="s">
+      <c r="AA12" s="399"/>
+      <c r="AB12" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC12" s="406"/>
-      <c r="AD12" s="403" t="s">
+      <c r="AC12" s="399"/>
+      <c r="AD12" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE12" s="404"/>
-      <c r="AF12" s="405" t="s">
+      <c r="AE12" s="405"/>
+      <c r="AF12" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG12" s="407"/>
-      <c r="AH12" s="406"/>
-      <c r="AI12" s="408" t="s">
+      <c r="AG12" s="398"/>
+      <c r="AH12" s="399"/>
+      <c r="AI12" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ12" s="409"/>
-      <c r="AK12" s="409"/>
-      <c r="AL12" s="409"/>
-      <c r="AM12" s="409"/>
-      <c r="AN12" s="410"/>
+      <c r="AJ12" s="400"/>
+      <c r="AK12" s="400"/>
+      <c r="AL12" s="400"/>
+      <c r="AM12" s="400"/>
+      <c r="AN12" s="401"/>
       <c r="AS12" s="120"/>
       <c r="AT12" s="120"/>
       <c r="AU12" s="140"/>
@@ -15125,69 +15152,69 @@
       <c r="A13" s="149">
         <v>5</v>
       </c>
-      <c r="B13" s="268" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="270"/>
+      <c r="B13" s="218" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
       <c r="G13" s="205" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="206"/>
       <c r="I13" s="206"/>
       <c r="J13" s="206"/>
       <c r="K13" s="207"/>
-      <c r="L13" s="218" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="220"/>
+      <c r="L13" s="219" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="221"/>
       <c r="Q13" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="405" t="s">
+      <c r="R13" s="267" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="407"/>
-      <c r="T13" s="407"/>
-      <c r="U13" s="406"/>
-      <c r="V13" s="419">
+      <c r="S13" s="398"/>
+      <c r="T13" s="398"/>
+      <c r="U13" s="399"/>
+      <c r="V13" s="402">
         <v>10</v>
       </c>
-      <c r="W13" s="420"/>
-      <c r="X13" s="403" t="s">
+      <c r="W13" s="403"/>
+      <c r="X13" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y13" s="404"/>
-      <c r="Z13" s="405" t="s">
+      <c r="Y13" s="405"/>
+      <c r="Z13" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA13" s="406"/>
-      <c r="AB13" s="405" t="s">
+      <c r="AA13" s="399"/>
+      <c r="AB13" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC13" s="406"/>
-      <c r="AD13" s="403" t="s">
+      <c r="AC13" s="399"/>
+      <c r="AD13" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE13" s="404"/>
-      <c r="AF13" s="405" t="s">
+      <c r="AE13" s="405"/>
+      <c r="AF13" s="267" t="s">
         <v>121</v>
       </c>
-      <c r="AG13" s="407"/>
-      <c r="AH13" s="406"/>
-      <c r="AI13" s="408" t="s">
+      <c r="AG13" s="398"/>
+      <c r="AH13" s="399"/>
+      <c r="AI13" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ13" s="409"/>
-      <c r="AK13" s="409"/>
-      <c r="AL13" s="409"/>
-      <c r="AM13" s="409"/>
-      <c r="AN13" s="410"/>
+      <c r="AJ13" s="400"/>
+      <c r="AK13" s="400"/>
+      <c r="AL13" s="400"/>
+      <c r="AM13" s="400"/>
+      <c r="AN13" s="401"/>
       <c r="AS13" s="120"/>
       <c r="AT13" s="120"/>
       <c r="AU13" s="140"/>
@@ -15253,69 +15280,69 @@
       <c r="A14" s="149">
         <v>6</v>
       </c>
-      <c r="B14" s="268" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="269"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="270"/>
+      <c r="B14" s="212" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214"/>
       <c r="G14" s="205" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H14" s="206"/>
       <c r="I14" s="206"/>
       <c r="J14" s="206"/>
       <c r="K14" s="207"/>
-      <c r="L14" s="218" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="220"/>
+      <c r="L14" s="219" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="220"/>
+      <c r="N14" s="220"/>
+      <c r="O14" s="220"/>
+      <c r="P14" s="221"/>
       <c r="Q14" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="405" t="s">
+      <c r="R14" s="267" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="407"/>
-      <c r="T14" s="407"/>
-      <c r="U14" s="406"/>
-      <c r="V14" s="419">
+      <c r="S14" s="398"/>
+      <c r="T14" s="398"/>
+      <c r="U14" s="399"/>
+      <c r="V14" s="402">
         <v>10</v>
       </c>
-      <c r="W14" s="420"/>
-      <c r="X14" s="403" t="s">
+      <c r="W14" s="403"/>
+      <c r="X14" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y14" s="404"/>
-      <c r="Z14" s="405" t="s">
+      <c r="Y14" s="405"/>
+      <c r="Z14" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA14" s="406"/>
-      <c r="AB14" s="405" t="s">
+      <c r="AA14" s="399"/>
+      <c r="AB14" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC14" s="406"/>
-      <c r="AD14" s="403" t="s">
+      <c r="AC14" s="399"/>
+      <c r="AD14" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE14" s="404"/>
-      <c r="AF14" s="405" t="s">
+      <c r="AE14" s="405"/>
+      <c r="AF14" s="267" t="s">
         <v>121</v>
       </c>
-      <c r="AG14" s="407"/>
-      <c r="AH14" s="406"/>
-      <c r="AI14" s="408" t="s">
+      <c r="AG14" s="398"/>
+      <c r="AH14" s="399"/>
+      <c r="AI14" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ14" s="409"/>
-      <c r="AK14" s="409"/>
-      <c r="AL14" s="409"/>
-      <c r="AM14" s="409"/>
-      <c r="AN14" s="410"/>
+      <c r="AJ14" s="400"/>
+      <c r="AK14" s="400"/>
+      <c r="AL14" s="400"/>
+      <c r="AM14" s="400"/>
+      <c r="AN14" s="401"/>
       <c r="AS14" s="120"/>
       <c r="AT14" s="120"/>
       <c r="AU14" s="140"/>
@@ -15381,69 +15408,69 @@
       <c r="A15" s="149">
         <v>7</v>
       </c>
-      <c r="B15" s="408" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="270"/>
+      <c r="B15" s="218" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="208" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="209"/>
       <c r="I15" s="209"/>
       <c r="J15" s="209"/>
       <c r="K15" s="210"/>
-      <c r="L15" s="405" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="220"/>
+      <c r="L15" s="267" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="220"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="221"/>
       <c r="Q15" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R15" s="405" t="s">
+      <c r="R15" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="S15" s="407"/>
-      <c r="T15" s="407"/>
-      <c r="U15" s="406"/>
-      <c r="V15" s="419">
+      <c r="S15" s="398"/>
+      <c r="T15" s="398"/>
+      <c r="U15" s="399"/>
+      <c r="V15" s="402">
         <v>11</v>
       </c>
-      <c r="W15" s="420"/>
-      <c r="X15" s="403" t="s">
+      <c r="W15" s="403"/>
+      <c r="X15" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y15" s="404"/>
-      <c r="Z15" s="405" t="s">
+      <c r="Y15" s="405"/>
+      <c r="Z15" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA15" s="406"/>
-      <c r="AB15" s="405" t="s">
+      <c r="AA15" s="399"/>
+      <c r="AB15" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC15" s="406"/>
-      <c r="AD15" s="403" t="s">
+      <c r="AC15" s="399"/>
+      <c r="AD15" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE15" s="404"/>
-      <c r="AF15" s="405" t="s">
+      <c r="AE15" s="405"/>
+      <c r="AF15" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG15" s="407"/>
-      <c r="AH15" s="406"/>
-      <c r="AI15" s="408" t="s">
+      <c r="AG15" s="398"/>
+      <c r="AH15" s="399"/>
+      <c r="AI15" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ15" s="409"/>
-      <c r="AK15" s="409"/>
-      <c r="AL15" s="409"/>
-      <c r="AM15" s="409"/>
-      <c r="AN15" s="410"/>
+      <c r="AJ15" s="400"/>
+      <c r="AK15" s="400"/>
+      <c r="AL15" s="400"/>
+      <c r="AM15" s="400"/>
+      <c r="AN15" s="401"/>
       <c r="AS15" s="120"/>
       <c r="AT15" s="120"/>
       <c r="AU15" s="140"/>
@@ -15509,69 +15536,69 @@
       <c r="A16" s="149">
         <v>8</v>
       </c>
-      <c r="B16" s="268" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="270"/>
+      <c r="B16" s="212" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="214"/>
       <c r="G16" s="205" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H16" s="206"/>
       <c r="I16" s="206"/>
       <c r="J16" s="206"/>
       <c r="K16" s="207"/>
-      <c r="L16" s="405" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="220"/>
+      <c r="L16" s="267" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="220"/>
+      <c r="N16" s="220"/>
+      <c r="O16" s="220"/>
+      <c r="P16" s="221"/>
       <c r="Q16" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R16" s="405" t="s">
+      <c r="R16" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="S16" s="407"/>
-      <c r="T16" s="407"/>
-      <c r="U16" s="406"/>
-      <c r="V16" s="419">
+      <c r="S16" s="398"/>
+      <c r="T16" s="398"/>
+      <c r="U16" s="399"/>
+      <c r="V16" s="402">
         <v>11</v>
       </c>
-      <c r="W16" s="420"/>
-      <c r="X16" s="403" t="s">
+      <c r="W16" s="403"/>
+      <c r="X16" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y16" s="404"/>
-      <c r="Z16" s="405" t="s">
+      <c r="Y16" s="405"/>
+      <c r="Z16" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA16" s="406"/>
-      <c r="AB16" s="405" t="s">
+      <c r="AA16" s="399"/>
+      <c r="AB16" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC16" s="406"/>
-      <c r="AD16" s="403" t="s">
+      <c r="AC16" s="399"/>
+      <c r="AD16" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE16" s="404"/>
-      <c r="AF16" s="405" t="s">
+      <c r="AE16" s="405"/>
+      <c r="AF16" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG16" s="407"/>
-      <c r="AH16" s="406"/>
-      <c r="AI16" s="408" t="s">
+      <c r="AG16" s="398"/>
+      <c r="AH16" s="399"/>
+      <c r="AI16" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ16" s="409"/>
-      <c r="AK16" s="409"/>
-      <c r="AL16" s="409"/>
-      <c r="AM16" s="409"/>
-      <c r="AN16" s="410"/>
+      <c r="AJ16" s="400"/>
+      <c r="AK16" s="400"/>
+      <c r="AL16" s="400"/>
+      <c r="AM16" s="400"/>
+      <c r="AN16" s="401"/>
       <c r="AS16" s="120"/>
       <c r="AT16" s="120"/>
       <c r="AU16" s="140"/>
@@ -15637,70 +15664,70 @@
       <c r="A17" s="149">
         <v>9</v>
       </c>
-      <c r="B17" s="268" t="s">
+      <c r="B17" s="212" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="270"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="214"/>
       <c r="G17" s="208" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" s="209"/>
       <c r="I17" s="209"/>
       <c r="J17" s="209"/>
       <c r="K17" s="210"/>
-      <c r="L17" s="218" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="219"/>
-      <c r="N17" s="219"/>
-      <c r="O17" s="219"/>
-      <c r="P17" s="220"/>
+      <c r="L17" s="219" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="220"/>
+      <c r="N17" s="220"/>
+      <c r="O17" s="220"/>
+      <c r="P17" s="221"/>
       <c r="Q17" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R17" s="405" t="s">
+      <c r="R17" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="407"/>
-      <c r="T17" s="407"/>
-      <c r="U17" s="406"/>
-      <c r="V17" s="419">
+      <c r="S17" s="398"/>
+      <c r="T17" s="398"/>
+      <c r="U17" s="399"/>
+      <c r="V17" s="402">
         <f t="shared" ref="V17:V18" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W17" s="420"/>
-      <c r="X17" s="403" t="s">
+      <c r="W17" s="403"/>
+      <c r="X17" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y17" s="404"/>
-      <c r="Z17" s="405" t="s">
+      <c r="Y17" s="405"/>
+      <c r="Z17" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA17" s="406"/>
-      <c r="AB17" s="405" t="s">
+      <c r="AA17" s="399"/>
+      <c r="AB17" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC17" s="406"/>
-      <c r="AD17" s="403" t="s">
+      <c r="AC17" s="399"/>
+      <c r="AD17" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE17" s="404"/>
-      <c r="AF17" s="405" t="s">
+      <c r="AE17" s="405"/>
+      <c r="AF17" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG17" s="407"/>
-      <c r="AH17" s="406"/>
-      <c r="AI17" s="408" t="s">
+      <c r="AG17" s="398"/>
+      <c r="AH17" s="399"/>
+      <c r="AI17" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ17" s="409"/>
-      <c r="AK17" s="409"/>
-      <c r="AL17" s="409"/>
-      <c r="AM17" s="409"/>
-      <c r="AN17" s="410"/>
+      <c r="AJ17" s="400"/>
+      <c r="AK17" s="400"/>
+      <c r="AL17" s="400"/>
+      <c r="AM17" s="400"/>
+      <c r="AN17" s="401"/>
       <c r="AS17" s="120"/>
       <c r="AT17" s="120"/>
       <c r="AU17" s="140"/>
@@ -15766,70 +15793,70 @@
       <c r="A18" s="149">
         <v>10</v>
       </c>
-      <c r="B18" s="268" t="s">
+      <c r="B18" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="270"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="214"/>
       <c r="G18" s="208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" s="209"/>
       <c r="I18" s="209"/>
       <c r="J18" s="209"/>
       <c r="K18" s="210"/>
-      <c r="L18" s="218" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="219"/>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
-      <c r="P18" s="220"/>
+      <c r="L18" s="219" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
+      <c r="O18" s="220"/>
+      <c r="P18" s="221"/>
       <c r="Q18" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R18" s="405" t="s">
+      <c r="R18" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="S18" s="407"/>
-      <c r="T18" s="407"/>
-      <c r="U18" s="406"/>
-      <c r="V18" s="419">
+      <c r="S18" s="398"/>
+      <c r="T18" s="398"/>
+      <c r="U18" s="399"/>
+      <c r="V18" s="402">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W18" s="420"/>
-      <c r="X18" s="403" t="s">
+      <c r="W18" s="403"/>
+      <c r="X18" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y18" s="404"/>
-      <c r="Z18" s="405" t="s">
+      <c r="Y18" s="405"/>
+      <c r="Z18" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA18" s="406"/>
-      <c r="AB18" s="405" t="s">
+      <c r="AA18" s="399"/>
+      <c r="AB18" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC18" s="406"/>
-      <c r="AD18" s="403" t="s">
+      <c r="AC18" s="399"/>
+      <c r="AD18" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE18" s="404"/>
-      <c r="AF18" s="405" t="s">
+      <c r="AE18" s="405"/>
+      <c r="AF18" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG18" s="407"/>
-      <c r="AH18" s="406"/>
-      <c r="AI18" s="408" t="s">
+      <c r="AG18" s="398"/>
+      <c r="AH18" s="399"/>
+      <c r="AI18" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ18" s="409"/>
-      <c r="AK18" s="409"/>
-      <c r="AL18" s="409"/>
-      <c r="AM18" s="409"/>
-      <c r="AN18" s="410"/>
+      <c r="AJ18" s="400"/>
+      <c r="AK18" s="400"/>
+      <c r="AL18" s="400"/>
+      <c r="AM18" s="400"/>
+      <c r="AN18" s="401"/>
       <c r="AS18" s="120"/>
       <c r="AT18" s="120"/>
       <c r="AU18" s="140"/>
@@ -15895,70 +15922,70 @@
       <c r="A19" s="149">
         <v>11</v>
       </c>
-      <c r="B19" s="268" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="270"/>
+      <c r="B19" s="212" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="214"/>
       <c r="G19" s="205" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" s="206"/>
       <c r="I19" s="206"/>
       <c r="J19" s="206"/>
       <c r="K19" s="207"/>
-      <c r="L19" s="218" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" s="219"/>
-      <c r="N19" s="219"/>
-      <c r="O19" s="219"/>
-      <c r="P19" s="220"/>
+      <c r="L19" s="219" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="220"/>
+      <c r="P19" s="221"/>
       <c r="Q19" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R19" s="405" t="s">
+      <c r="R19" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="407"/>
-      <c r="T19" s="407"/>
-      <c r="U19" s="406"/>
-      <c r="V19" s="419">
+      <c r="S19" s="398"/>
+      <c r="T19" s="398"/>
+      <c r="U19" s="399"/>
+      <c r="V19" s="402">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W19" s="420"/>
-      <c r="X19" s="403" t="s">
+      <c r="W19" s="403"/>
+      <c r="X19" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y19" s="404"/>
-      <c r="Z19" s="405" t="s">
+      <c r="Y19" s="405"/>
+      <c r="Z19" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA19" s="406"/>
-      <c r="AB19" s="405" t="s">
+      <c r="AA19" s="399"/>
+      <c r="AB19" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC19" s="406"/>
-      <c r="AD19" s="403" t="s">
+      <c r="AC19" s="399"/>
+      <c r="AD19" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE19" s="404"/>
-      <c r="AF19" s="405" t="s">
+      <c r="AE19" s="405"/>
+      <c r="AF19" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG19" s="407"/>
-      <c r="AH19" s="406"/>
-      <c r="AI19" s="408" t="s">
+      <c r="AG19" s="398"/>
+      <c r="AH19" s="399"/>
+      <c r="AI19" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ19" s="409"/>
-      <c r="AK19" s="409"/>
-      <c r="AL19" s="409"/>
-      <c r="AM19" s="409"/>
-      <c r="AN19" s="410"/>
+      <c r="AJ19" s="400"/>
+      <c r="AK19" s="400"/>
+      <c r="AL19" s="400"/>
+      <c r="AM19" s="400"/>
+      <c r="AN19" s="401"/>
       <c r="AS19" s="120"/>
       <c r="AT19" s="120"/>
       <c r="AU19" s="140"/>
@@ -16024,69 +16051,69 @@
       <c r="A20" s="149">
         <v>12</v>
       </c>
-      <c r="B20" s="408" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="269"/>
-      <c r="D20" s="269"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="270"/>
+      <c r="B20" s="218" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
       <c r="G20" s="208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="209"/>
       <c r="I20" s="209"/>
       <c r="J20" s="209"/>
       <c r="K20" s="210"/>
-      <c r="L20" s="405" t="s">
-        <v>149</v>
-      </c>
-      <c r="M20" s="219"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
-      <c r="P20" s="220"/>
+      <c r="L20" s="267" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="221"/>
       <c r="Q20" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R20" s="405" t="s">
+      <c r="R20" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="S20" s="407"/>
-      <c r="T20" s="407"/>
-      <c r="U20" s="406"/>
-      <c r="V20" s="419">
+      <c r="S20" s="398"/>
+      <c r="T20" s="398"/>
+      <c r="U20" s="399"/>
+      <c r="V20" s="402">
         <v>11</v>
       </c>
-      <c r="W20" s="420"/>
-      <c r="X20" s="403" t="s">
+      <c r="W20" s="403"/>
+      <c r="X20" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y20" s="404"/>
-      <c r="Z20" s="405" t="s">
+      <c r="Y20" s="405"/>
+      <c r="Z20" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA20" s="406"/>
-      <c r="AB20" s="405" t="s">
+      <c r="AA20" s="399"/>
+      <c r="AB20" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" s="406"/>
-      <c r="AD20" s="403" t="s">
+      <c r="AC20" s="399"/>
+      <c r="AD20" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" s="404"/>
-      <c r="AF20" s="405" t="s">
+      <c r="AE20" s="405"/>
+      <c r="AF20" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG20" s="407"/>
-      <c r="AH20" s="406"/>
-      <c r="AI20" s="408" t="s">
+      <c r="AG20" s="398"/>
+      <c r="AH20" s="399"/>
+      <c r="AI20" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ20" s="409"/>
-      <c r="AK20" s="409"/>
-      <c r="AL20" s="409"/>
-      <c r="AM20" s="409"/>
-      <c r="AN20" s="410"/>
+      <c r="AJ20" s="400"/>
+      <c r="AK20" s="400"/>
+      <c r="AL20" s="400"/>
+      <c r="AM20" s="400"/>
+      <c r="AN20" s="401"/>
       <c r="AS20" s="120"/>
       <c r="AT20" s="120"/>
       <c r="AU20" s="140"/>
@@ -16152,69 +16179,69 @@
       <c r="A21" s="149">
         <v>13</v>
       </c>
-      <c r="B21" s="268" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="269"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="270"/>
+      <c r="B21" s="212" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
       <c r="G21" s="208" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" s="209"/>
       <c r="I21" s="209"/>
       <c r="J21" s="209"/>
       <c r="K21" s="210"/>
-      <c r="L21" s="218" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="220"/>
+      <c r="L21" s="219" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="220"/>
+      <c r="N21" s="220"/>
+      <c r="O21" s="220"/>
+      <c r="P21" s="221"/>
       <c r="Q21" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="R21" s="405" t="s">
+      <c r="R21" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="S21" s="407"/>
-      <c r="T21" s="407"/>
-      <c r="U21" s="406"/>
-      <c r="V21" s="419">
+      <c r="S21" s="398"/>
+      <c r="T21" s="398"/>
+      <c r="U21" s="399"/>
+      <c r="V21" s="402">
         <v>11</v>
       </c>
-      <c r="W21" s="420"/>
-      <c r="X21" s="403" t="s">
+      <c r="W21" s="403"/>
+      <c r="X21" s="404" t="s">
         <v>122</v>
       </c>
-      <c r="Y21" s="404"/>
-      <c r="Z21" s="405" t="s">
+      <c r="Y21" s="405"/>
+      <c r="Z21" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AA21" s="406"/>
-      <c r="AB21" s="405" t="s">
+      <c r="AA21" s="399"/>
+      <c r="AB21" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AC21" s="406"/>
-      <c r="AD21" s="403" t="s">
+      <c r="AC21" s="399"/>
+      <c r="AD21" s="404" t="s">
         <v>108</v>
       </c>
-      <c r="AE21" s="404"/>
-      <c r="AF21" s="405" t="s">
+      <c r="AE21" s="405"/>
+      <c r="AF21" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="AG21" s="407"/>
-      <c r="AH21" s="406"/>
-      <c r="AI21" s="408" t="s">
+      <c r="AG21" s="398"/>
+      <c r="AH21" s="399"/>
+      <c r="AI21" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="AJ21" s="409"/>
-      <c r="AK21" s="409"/>
-      <c r="AL21" s="409"/>
-      <c r="AM21" s="409"/>
-      <c r="AN21" s="410"/>
+      <c r="AJ21" s="400"/>
+      <c r="AK21" s="400"/>
+      <c r="AL21" s="400"/>
+      <c r="AM21" s="400"/>
+      <c r="AN21" s="401"/>
       <c r="AS21" s="120"/>
       <c r="AT21" s="120"/>
       <c r="AU21" s="140"/>
@@ -16278,45 +16305,45 @@
     </row>
     <row r="22" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="181"/>
-      <c r="B22" s="408"/>
-      <c r="C22" s="409"/>
-      <c r="D22" s="409"/>
-      <c r="E22" s="409"/>
-      <c r="F22" s="410"/>
-      <c r="G22" s="416"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
-      <c r="K22" s="418"/>
-      <c r="L22" s="408"/>
-      <c r="M22" s="409"/>
-      <c r="N22" s="409"/>
-      <c r="O22" s="409"/>
-      <c r="P22" s="410"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="400"/>
+      <c r="D22" s="400"/>
+      <c r="E22" s="400"/>
+      <c r="F22" s="401"/>
+      <c r="G22" s="406"/>
+      <c r="H22" s="407"/>
+      <c r="I22" s="407"/>
+      <c r="J22" s="407"/>
+      <c r="K22" s="408"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="400"/>
+      <c r="N22" s="400"/>
+      <c r="O22" s="400"/>
+      <c r="P22" s="401"/>
       <c r="Q22" s="182"/>
-      <c r="R22" s="405"/>
-      <c r="S22" s="407"/>
-      <c r="T22" s="407"/>
-      <c r="U22" s="406"/>
-      <c r="V22" s="419"/>
-      <c r="W22" s="420"/>
-      <c r="X22" s="403"/>
-      <c r="Y22" s="404"/>
-      <c r="Z22" s="405"/>
-      <c r="AA22" s="406"/>
-      <c r="AB22" s="405"/>
-      <c r="AC22" s="406"/>
-      <c r="AD22" s="403"/>
-      <c r="AE22" s="404"/>
-      <c r="AF22" s="405"/>
-      <c r="AG22" s="407"/>
-      <c r="AH22" s="406"/>
-      <c r="AI22" s="408"/>
-      <c r="AJ22" s="409"/>
-      <c r="AK22" s="409"/>
-      <c r="AL22" s="409"/>
-      <c r="AM22" s="409"/>
-      <c r="AN22" s="410"/>
+      <c r="R22" s="267"/>
+      <c r="S22" s="398"/>
+      <c r="T22" s="398"/>
+      <c r="U22" s="399"/>
+      <c r="V22" s="402"/>
+      <c r="W22" s="403"/>
+      <c r="X22" s="404"/>
+      <c r="Y22" s="405"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="399"/>
+      <c r="AB22" s="267"/>
+      <c r="AC22" s="399"/>
+      <c r="AD22" s="404"/>
+      <c r="AE22" s="405"/>
+      <c r="AF22" s="267"/>
+      <c r="AG22" s="398"/>
+      <c r="AH22" s="399"/>
+      <c r="AI22" s="218"/>
+      <c r="AJ22" s="400"/>
+      <c r="AK22" s="400"/>
+      <c r="AL22" s="400"/>
+      <c r="AM22" s="400"/>
+      <c r="AN22" s="401"/>
       <c r="AS22" s="120"/>
       <c r="AT22" s="120"/>
       <c r="AU22" s="140"/>
@@ -16380,45 +16407,45 @@
     </row>
     <row r="23" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="181"/>
-      <c r="B23" s="408"/>
-      <c r="C23" s="409"/>
-      <c r="D23" s="409"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="410"/>
-      <c r="G23" s="416"/>
-      <c r="H23" s="417"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
-      <c r="K23" s="418"/>
-      <c r="L23" s="408"/>
-      <c r="M23" s="409"/>
-      <c r="N23" s="409"/>
-      <c r="O23" s="409"/>
-      <c r="P23" s="410"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="400"/>
+      <c r="D23" s="400"/>
+      <c r="E23" s="400"/>
+      <c r="F23" s="401"/>
+      <c r="G23" s="406"/>
+      <c r="H23" s="407"/>
+      <c r="I23" s="407"/>
+      <c r="J23" s="407"/>
+      <c r="K23" s="408"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="400"/>
+      <c r="N23" s="400"/>
+      <c r="O23" s="400"/>
+      <c r="P23" s="401"/>
       <c r="Q23" s="182"/>
-      <c r="R23" s="405"/>
-      <c r="S23" s="407"/>
-      <c r="T23" s="407"/>
-      <c r="U23" s="406"/>
-      <c r="V23" s="419"/>
-      <c r="W23" s="420"/>
-      <c r="X23" s="403"/>
-      <c r="Y23" s="404"/>
-      <c r="Z23" s="405"/>
-      <c r="AA23" s="406"/>
-      <c r="AB23" s="405"/>
-      <c r="AC23" s="406"/>
-      <c r="AD23" s="403"/>
-      <c r="AE23" s="404"/>
-      <c r="AF23" s="405"/>
-      <c r="AG23" s="407"/>
-      <c r="AH23" s="406"/>
-      <c r="AI23" s="408"/>
-      <c r="AJ23" s="409"/>
-      <c r="AK23" s="409"/>
-      <c r="AL23" s="409"/>
-      <c r="AM23" s="409"/>
-      <c r="AN23" s="410"/>
+      <c r="R23" s="267"/>
+      <c r="S23" s="398"/>
+      <c r="T23" s="398"/>
+      <c r="U23" s="399"/>
+      <c r="V23" s="402"/>
+      <c r="W23" s="403"/>
+      <c r="X23" s="404"/>
+      <c r="Y23" s="405"/>
+      <c r="Z23" s="267"/>
+      <c r="AA23" s="399"/>
+      <c r="AB23" s="267"/>
+      <c r="AC23" s="399"/>
+      <c r="AD23" s="404"/>
+      <c r="AE23" s="405"/>
+      <c r="AF23" s="267"/>
+      <c r="AG23" s="398"/>
+      <c r="AH23" s="399"/>
+      <c r="AI23" s="218"/>
+      <c r="AJ23" s="400"/>
+      <c r="AK23" s="400"/>
+      <c r="AL23" s="400"/>
+      <c r="AM23" s="400"/>
+      <c r="AN23" s="401"/>
       <c r="AS23" s="120"/>
       <c r="AT23" s="120"/>
       <c r="AU23" s="140"/>
@@ -16482,45 +16509,45 @@
     </row>
     <row r="24" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="181"/>
-      <c r="B24" s="408"/>
-      <c r="C24" s="409"/>
-      <c r="D24" s="409"/>
-      <c r="E24" s="409"/>
-      <c r="F24" s="410"/>
-      <c r="G24" s="408"/>
-      <c r="H24" s="409"/>
-      <c r="I24" s="409"/>
-      <c r="J24" s="409"/>
-      <c r="K24" s="410"/>
-      <c r="L24" s="408"/>
-      <c r="M24" s="409"/>
-      <c r="N24" s="409"/>
-      <c r="O24" s="409"/>
-      <c r="P24" s="410"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="400"/>
+      <c r="D24" s="400"/>
+      <c r="E24" s="400"/>
+      <c r="F24" s="401"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="400"/>
+      <c r="I24" s="400"/>
+      <c r="J24" s="400"/>
+      <c r="K24" s="401"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="400"/>
+      <c r="N24" s="400"/>
+      <c r="O24" s="400"/>
+      <c r="P24" s="401"/>
       <c r="Q24" s="182"/>
-      <c r="R24" s="405"/>
-      <c r="S24" s="407"/>
-      <c r="T24" s="407"/>
-      <c r="U24" s="406"/>
-      <c r="V24" s="412"/>
-      <c r="W24" s="413"/>
-      <c r="X24" s="414"/>
-      <c r="Y24" s="415"/>
-      <c r="Z24" s="403"/>
-      <c r="AA24" s="404"/>
-      <c r="AB24" s="405"/>
-      <c r="AC24" s="406"/>
-      <c r="AD24" s="403"/>
-      <c r="AE24" s="404"/>
-      <c r="AF24" s="405"/>
-      <c r="AG24" s="407"/>
-      <c r="AH24" s="406"/>
-      <c r="AI24" s="408"/>
-      <c r="AJ24" s="409"/>
-      <c r="AK24" s="409"/>
-      <c r="AL24" s="409"/>
-      <c r="AM24" s="409"/>
-      <c r="AN24" s="410"/>
+      <c r="R24" s="267"/>
+      <c r="S24" s="398"/>
+      <c r="T24" s="398"/>
+      <c r="U24" s="399"/>
+      <c r="V24" s="413"/>
+      <c r="W24" s="414"/>
+      <c r="X24" s="415"/>
+      <c r="Y24" s="416"/>
+      <c r="Z24" s="404"/>
+      <c r="AA24" s="405"/>
+      <c r="AB24" s="267"/>
+      <c r="AC24" s="399"/>
+      <c r="AD24" s="404"/>
+      <c r="AE24" s="405"/>
+      <c r="AF24" s="267"/>
+      <c r="AG24" s="398"/>
+      <c r="AH24" s="399"/>
+      <c r="AI24" s="218"/>
+      <c r="AJ24" s="400"/>
+      <c r="AK24" s="400"/>
+      <c r="AL24" s="400"/>
+      <c r="AM24" s="400"/>
+      <c r="AN24" s="401"/>
       <c r="AS24" s="120"/>
       <c r="AT24" s="120"/>
       <c r="AU24" s="140"/>
@@ -16584,152 +16611,27 @@
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AN22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="AD24:AE24"/>
@@ -16754,27 +16656,152 @@
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="L23:P23"/>
     <mergeCell ref="R23:U23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AN22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
